--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4577,28 +4577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6021.707257837525</v>
+        <v>6442.545341624943</v>
       </c>
       <c r="AB2" t="n">
-        <v>8239.16552914872</v>
+        <v>8814.974761452626</v>
       </c>
       <c r="AC2" t="n">
-        <v>7452.831134787902</v>
+        <v>7973.685942114035</v>
       </c>
       <c r="AD2" t="n">
-        <v>6021707.257837525</v>
+        <v>6442545.341624943</v>
       </c>
       <c r="AE2" t="n">
-        <v>8239165.52914872</v>
+        <v>8814974.761452626</v>
       </c>
       <c r="AF2" t="n">
         <v>1.874758995047062e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.71249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>7452831.134787901</v>
+        <v>7973685.942114036</v>
       </c>
     </row>
     <row r="3">
@@ -4683,28 +4683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2143.823222383075</v>
+        <v>2368.925046182309</v>
       </c>
       <c r="AB3" t="n">
-        <v>2933.273511670056</v>
+        <v>3241.26775778394</v>
       </c>
       <c r="AC3" t="n">
-        <v>2653.326004591496</v>
+        <v>2931.925712128787</v>
       </c>
       <c r="AD3" t="n">
-        <v>2143823.222383074</v>
+        <v>2368925.046182308</v>
       </c>
       <c r="AE3" t="n">
-        <v>2933273.511670056</v>
+        <v>3241267.75778394</v>
       </c>
       <c r="AF3" t="n">
         <v>3.514843516733804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.65416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2653326.004591496</v>
+        <v>2931925.712128787</v>
       </c>
     </row>
     <row r="4">
@@ -4789,28 +4789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1678.73012520136</v>
+        <v>1864.644709530274</v>
       </c>
       <c r="AB4" t="n">
-        <v>2296.912617646707</v>
+        <v>2551.289153898122</v>
       </c>
       <c r="AC4" t="n">
-        <v>2077.698501155611</v>
+        <v>2307.797697806901</v>
       </c>
       <c r="AD4" t="n">
-        <v>1678730.12520136</v>
+        <v>1864644.709530274</v>
       </c>
       <c r="AE4" t="n">
-        <v>2296912.617646707</v>
+        <v>2551289.153898122</v>
       </c>
       <c r="AF4" t="n">
         <v>4.119798900709206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.09583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2077698.501155611</v>
+        <v>2307797.697806901</v>
       </c>
     </row>
     <row r="5">
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1491.442582463382</v>
+        <v>1667.534480103167</v>
       </c>
       <c r="AB5" t="n">
-        <v>2040.657539129361</v>
+        <v>2281.594242106356</v>
       </c>
       <c r="AC5" t="n">
-        <v>1845.900047675699</v>
+        <v>2063.842089877356</v>
       </c>
       <c r="AD5" t="n">
-        <v>1491442.582463382</v>
+        <v>1667534.480103167</v>
       </c>
       <c r="AE5" t="n">
-        <v>2040657.539129361</v>
+        <v>2281594.242106357</v>
       </c>
       <c r="AF5" t="n">
         <v>4.436967290066174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>36</v>
+        <v>35.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1845900.047675699</v>
+        <v>2063842.089877356</v>
       </c>
     </row>
     <row r="6">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1382.660277810987</v>
+        <v>1558.785329839695</v>
       </c>
       <c r="AB6" t="n">
-        <v>1891.816790767379</v>
+        <v>2132.798857041968</v>
       </c>
       <c r="AC6" t="n">
-        <v>1711.264451438082</v>
+        <v>1929.247527527878</v>
       </c>
       <c r="AD6" t="n">
-        <v>1382660.277810987</v>
+        <v>1558785.329839695</v>
       </c>
       <c r="AE6" t="n">
-        <v>1891816.790767379</v>
+        <v>2132798.857041968</v>
       </c>
       <c r="AF6" t="n">
         <v>4.637740154112806e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.84166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1711264.451438082</v>
+        <v>1929247.527527879</v>
       </c>
     </row>
     <row r="7">
@@ -5107,28 +5107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1315.059181738192</v>
+        <v>1481.429877915333</v>
       </c>
       <c r="AB7" t="n">
-        <v>1799.321988770707</v>
+        <v>2026.957715037373</v>
       </c>
       <c r="AC7" t="n">
-        <v>1627.597223526702</v>
+        <v>1833.507715567225</v>
       </c>
       <c r="AD7" t="n">
-        <v>1315059.181738192</v>
+        <v>1481429.877915333</v>
       </c>
       <c r="AE7" t="n">
-        <v>1799321.988770707</v>
+        <v>2026957.715037372</v>
       </c>
       <c r="AF7" t="n">
         <v>4.774099960463426e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1627597.223526702</v>
+        <v>1833507.715567225</v>
       </c>
     </row>
     <row r="8">
@@ -5213,28 +5213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1274.335524993621</v>
+        <v>1430.88454551149</v>
       </c>
       <c r="AB8" t="n">
-        <v>1743.602085011846</v>
+        <v>1957.799361339747</v>
       </c>
       <c r="AC8" t="n">
-        <v>1577.195149179211</v>
+        <v>1770.949738082142</v>
       </c>
       <c r="AD8" t="n">
-        <v>1274335.524993621</v>
+        <v>1430884.54551149</v>
       </c>
       <c r="AE8" t="n">
-        <v>1743602.085011846</v>
+        <v>1957799.361339747</v>
       </c>
       <c r="AF8" t="n">
         <v>4.868647781993828e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.2375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1577195.149179211</v>
+        <v>1770949.738082142</v>
       </c>
     </row>
     <row r="9">
@@ -5319,28 +5319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1230.505871568247</v>
+        <v>1396.842402326607</v>
       </c>
       <c r="AB9" t="n">
-        <v>1683.632419567409</v>
+        <v>1911.221399200827</v>
       </c>
       <c r="AC9" t="n">
-        <v>1522.948904436837</v>
+        <v>1728.81711127718</v>
       </c>
       <c r="AD9" t="n">
-        <v>1230505.871568247</v>
+        <v>1396842.402326607</v>
       </c>
       <c r="AE9" t="n">
-        <v>1683632.419567409</v>
+        <v>1911221.399200827</v>
       </c>
       <c r="AF9" t="n">
         <v>4.946244798867385e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.73333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1522948.904436837</v>
+        <v>1728817.11127718</v>
       </c>
     </row>
     <row r="10">
@@ -5425,28 +5425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1202.696195916578</v>
+        <v>1359.211051015666</v>
       </c>
       <c r="AB10" t="n">
-        <v>1645.581994464495</v>
+        <v>1859.732524159147</v>
       </c>
       <c r="AC10" t="n">
-        <v>1488.529958501637</v>
+        <v>1682.242262204389</v>
       </c>
       <c r="AD10" t="n">
-        <v>1202696.195916578</v>
+        <v>1359211.051015666</v>
       </c>
       <c r="AE10" t="n">
-        <v>1645581.994464495</v>
+        <v>1859732.524159147</v>
       </c>
       <c r="AF10" t="n">
         <v>5.003877534700659e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.36666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1488529.958501637</v>
+        <v>1682242.262204389</v>
       </c>
     </row>
     <row r="11">
@@ -5531,28 +5531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1179.11857050865</v>
+        <v>1335.633425607739</v>
       </c>
       <c r="AB11" t="n">
-        <v>1613.322047209947</v>
+        <v>1827.4725769046</v>
       </c>
       <c r="AC11" t="n">
-        <v>1459.348855335944</v>
+        <v>1653.061159038695</v>
       </c>
       <c r="AD11" t="n">
-        <v>1179118.570508651</v>
+        <v>1335633.425607739</v>
       </c>
       <c r="AE11" t="n">
-        <v>1613322.047209947</v>
+        <v>1827472.5769046</v>
       </c>
       <c r="AF11" t="n">
         <v>5.052093156835684e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>32</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1459348.855335944</v>
+        <v>1653061.159038695</v>
       </c>
     </row>
     <row r="12">
@@ -5637,28 +5637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1145.307988778722</v>
+        <v>1301.890163685514</v>
       </c>
       <c r="AB12" t="n">
-        <v>1567.060917669465</v>
+        <v>1781.30355729496</v>
       </c>
       <c r="AC12" t="n">
-        <v>1417.502823070903</v>
+        <v>1611.298445861973</v>
       </c>
       <c r="AD12" t="n">
-        <v>1145307.988778722</v>
+        <v>1301890.163685514</v>
       </c>
       <c r="AE12" t="n">
-        <v>1567060.917669466</v>
+        <v>1781303.55729496</v>
       </c>
       <c r="AF12" t="n">
         <v>5.089761611628674e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.8375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1417502.823070903</v>
+        <v>1611298.445861973</v>
       </c>
     </row>
     <row r="13">
@@ -5743,28 +5743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1124.871682820114</v>
+        <v>1281.453857726907</v>
       </c>
       <c r="AB13" t="n">
-        <v>1539.09906227071</v>
+        <v>1753.341701896205</v>
       </c>
       <c r="AC13" t="n">
-        <v>1392.209607906694</v>
+        <v>1586.005230697764</v>
       </c>
       <c r="AD13" t="n">
-        <v>1124871.682820114</v>
+        <v>1281453.857726907</v>
       </c>
       <c r="AE13" t="n">
-        <v>1539099.06227071</v>
+        <v>1753341.701896205</v>
       </c>
       <c r="AF13" t="n">
         <v>5.128560120065452e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.60416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1392209.607906694</v>
+        <v>1586005.230697764</v>
       </c>
     </row>
     <row r="14">
@@ -5849,28 +5849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1106.648335850874</v>
+        <v>1263.129025531182</v>
       </c>
       <c r="AB14" t="n">
-        <v>1514.165074990068</v>
+        <v>1728.268858051473</v>
       </c>
       <c r="AC14" t="n">
-        <v>1369.655285377046</v>
+        <v>1563.325303879617</v>
       </c>
       <c r="AD14" t="n">
-        <v>1106648.335850874</v>
+        <v>1263129.025531182</v>
       </c>
       <c r="AE14" t="n">
-        <v>1514165.074990068</v>
+        <v>1728268.858051474</v>
       </c>
       <c r="AF14" t="n">
         <v>5.157941514803983e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.42916666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1369655.285377046</v>
+        <v>1563325.303879617</v>
       </c>
     </row>
     <row r="15">
@@ -5955,28 +5955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1092.509503008335</v>
+        <v>1239.270002255856</v>
       </c>
       <c r="AB15" t="n">
-        <v>1494.819700133624</v>
+        <v>1695.623889820353</v>
       </c>
       <c r="AC15" t="n">
-        <v>1352.156205945496</v>
+        <v>1533.795925598974</v>
       </c>
       <c r="AD15" t="n">
-        <v>1092509.503008335</v>
+        <v>1239270.002255856</v>
       </c>
       <c r="AE15" t="n">
-        <v>1494819.700133624</v>
+        <v>1695623.889820354</v>
       </c>
       <c r="AF15" t="n">
         <v>5.174138950364969e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1352156.205945496</v>
+        <v>1533795.925598974</v>
       </c>
     </row>
     <row r="16">
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1085.925517636644</v>
+        <v>1232.686016884165</v>
       </c>
       <c r="AB16" t="n">
-        <v>1485.811200883142</v>
+        <v>1686.615390569872</v>
       </c>
       <c r="AC16" t="n">
-        <v>1344.007465219972</v>
+        <v>1525.64718487345</v>
       </c>
       <c r="AD16" t="n">
-        <v>1085925.517636644</v>
+        <v>1232686.016884165</v>
       </c>
       <c r="AE16" t="n">
-        <v>1485811.200883142</v>
+        <v>1686615.390569872</v>
       </c>
       <c r="AF16" t="n">
         <v>5.187699594090445e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.25416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1344007.465219972</v>
+        <v>1525647.18487345</v>
       </c>
     </row>
     <row r="17">
@@ -6167,28 +6167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1089.377273585219</v>
+        <v>1236.137772832739</v>
       </c>
       <c r="AB17" t="n">
-        <v>1490.534045652707</v>
+        <v>1691.338235339437</v>
       </c>
       <c r="AC17" t="n">
-        <v>1348.279568313284</v>
+        <v>1529.919287966762</v>
       </c>
       <c r="AD17" t="n">
-        <v>1089377.273585219</v>
+        <v>1236137.772832739</v>
       </c>
       <c r="AE17" t="n">
-        <v>1490534.045652707</v>
+        <v>1691338.235339437</v>
       </c>
       <c r="AF17" t="n">
         <v>5.187322909542515e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>31</v>
+        <v>30.25833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1348279.568313284</v>
+        <v>1529919.287966762</v>
       </c>
     </row>
   </sheetData>
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3744.997630041795</v>
+        <v>4074.06797030791</v>
       </c>
       <c r="AB2" t="n">
-        <v>5124.07097505844</v>
+        <v>5574.319532169377</v>
       </c>
       <c r="AC2" t="n">
-        <v>4635.036832877449</v>
+        <v>5042.314299625522</v>
       </c>
       <c r="AD2" t="n">
-        <v>3744997.630041795</v>
+        <v>4074067.97030791</v>
       </c>
       <c r="AE2" t="n">
-        <v>5124070.97505844</v>
+        <v>5574319.532169377</v>
       </c>
       <c r="AF2" t="n">
         <v>2.60568969794985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.90416666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>4635036.83287745</v>
+        <v>5042314.299625522</v>
       </c>
     </row>
     <row r="3">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1722.089937919635</v>
+        <v>1925.347304653125</v>
       </c>
       <c r="AB3" t="n">
-        <v>2356.239426307783</v>
+        <v>2634.345122554699</v>
       </c>
       <c r="AC3" t="n">
-        <v>2131.363242463773</v>
+        <v>2382.926921384679</v>
       </c>
       <c r="AD3" t="n">
-        <v>1722089.937919635</v>
+        <v>1925347.304653125</v>
       </c>
       <c r="AE3" t="n">
-        <v>2356239.426307783</v>
+        <v>2634345.122554699</v>
       </c>
       <c r="AF3" t="n">
         <v>4.199521090226355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.89583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2131363.242463773</v>
+        <v>2382926.921384679</v>
       </c>
     </row>
     <row r="4">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1400.075943587758</v>
+        <v>1583.938046602251</v>
       </c>
       <c r="AB4" t="n">
-        <v>1915.645673008106</v>
+        <v>2167.213913776044</v>
       </c>
       <c r="AC4" t="n">
-        <v>1732.8191386018</v>
+        <v>1960.37805954909</v>
       </c>
       <c r="AD4" t="n">
-        <v>1400075.943587758</v>
+        <v>1583938.046602251</v>
       </c>
       <c r="AE4" t="n">
-        <v>1915645.673008106</v>
+        <v>2167213.913776044</v>
       </c>
       <c r="AF4" t="n">
         <v>4.779021203373696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.93333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1732819.1386018</v>
+        <v>1960378.05954909</v>
       </c>
     </row>
     <row r="5">
@@ -6782,28 +6782,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1268.257154230133</v>
+        <v>1442.438708094518</v>
       </c>
       <c r="AB5" t="n">
-        <v>1735.28538997445</v>
+        <v>1973.608276319523</v>
       </c>
       <c r="AC5" t="n">
-        <v>1569.672187843629</v>
+        <v>1785.2498724042</v>
       </c>
       <c r="AD5" t="n">
-        <v>1268257.154230133</v>
+        <v>1442438.708094517</v>
       </c>
       <c r="AE5" t="n">
-        <v>1735285.38997445</v>
+        <v>1973608.276319523</v>
       </c>
       <c r="AF5" t="n">
         <v>5.073305044616372e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.85</v>
       </c>
       <c r="AH5" t="n">
-        <v>1569672.187843629</v>
+        <v>1785249.8724042</v>
       </c>
     </row>
     <row r="6">
@@ -6888,28 +6888,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1190.152127538254</v>
+        <v>1354.687297671311</v>
       </c>
       <c r="AB6" t="n">
-        <v>1628.418646704033</v>
+        <v>1853.542925259488</v>
       </c>
       <c r="AC6" t="n">
-        <v>1473.004656562524</v>
+        <v>1676.643389936557</v>
       </c>
       <c r="AD6" t="n">
-        <v>1190152.127538254</v>
+        <v>1354687.297671311</v>
       </c>
       <c r="AE6" t="n">
-        <v>1628418.646704033</v>
+        <v>1853542.925259488</v>
       </c>
       <c r="AF6" t="n">
         <v>5.260838865016115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.64583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1473004.656562524</v>
+        <v>1676643.389936557</v>
       </c>
     </row>
     <row r="7">
@@ -6994,28 +6994,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1133.740975069211</v>
+        <v>1298.241979783488</v>
       </c>
       <c r="AB7" t="n">
-        <v>1551.234419211484</v>
+        <v>1776.311951133692</v>
       </c>
       <c r="AC7" t="n">
-        <v>1403.186783413121</v>
+        <v>1606.783231586973</v>
       </c>
       <c r="AD7" t="n">
-        <v>1133740.975069211</v>
+        <v>1298241.979783488</v>
       </c>
       <c r="AE7" t="n">
-        <v>1551234.419211484</v>
+        <v>1776311.951133692</v>
       </c>
       <c r="AF7" t="n">
         <v>5.388196997990886e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.87083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1403186.783413121</v>
+        <v>1606783.231586973</v>
       </c>
     </row>
     <row r="8">
@@ -7100,28 +7100,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1097.465842552374</v>
+        <v>1252.253143727619</v>
       </c>
       <c r="AB8" t="n">
-        <v>1501.601182556048</v>
+        <v>1713.387996757797</v>
       </c>
       <c r="AC8" t="n">
-        <v>1358.290473203394</v>
+        <v>1549.864651102389</v>
       </c>
       <c r="AD8" t="n">
-        <v>1097465.842552374</v>
+        <v>1252253.143727619</v>
       </c>
       <c r="AE8" t="n">
-        <v>1501601.182556048</v>
+        <v>1713387.996757797</v>
       </c>
       <c r="AF8" t="n">
         <v>5.478872691370982e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.34583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1358290.473203394</v>
+        <v>1549864.651102389</v>
       </c>
     </row>
     <row r="9">
@@ -7206,28 +7206,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1056.219371638336</v>
+        <v>1211.073992621285</v>
       </c>
       <c r="AB9" t="n">
-        <v>1445.165941385589</v>
+        <v>1657.04486551818</v>
       </c>
       <c r="AC9" t="n">
-        <v>1307.241332242886</v>
+        <v>1498.8988292302</v>
       </c>
       <c r="AD9" t="n">
-        <v>1056219.371638336</v>
+        <v>1211073.992621285</v>
       </c>
       <c r="AE9" t="n">
-        <v>1445165.941385589</v>
+        <v>1657044.86551818</v>
       </c>
       <c r="AF9" t="n">
         <v>5.548940272619239e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.95</v>
       </c>
       <c r="AH9" t="n">
-        <v>1307241.332242886</v>
+        <v>1498898.8292302</v>
       </c>
     </row>
     <row r="10">
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1026.770529253837</v>
+        <v>1181.625150236786</v>
       </c>
       <c r="AB10" t="n">
-        <v>1404.872736043884</v>
+        <v>1616.751660176475</v>
       </c>
       <c r="AC10" t="n">
-        <v>1270.793653867124</v>
+        <v>1462.451150854438</v>
       </c>
       <c r="AD10" t="n">
-        <v>1026770.529253837</v>
+        <v>1181625.150236786</v>
       </c>
       <c r="AE10" t="n">
-        <v>1404872.736043884</v>
+        <v>1616751.660176475</v>
       </c>
       <c r="AF10" t="n">
         <v>5.607055148831028e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.62916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1270793.653867124</v>
+        <v>1462451.150854438</v>
       </c>
     </row>
     <row r="11">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1007.351961330096</v>
+        <v>1162.10509708656</v>
       </c>
       <c r="AB11" t="n">
-        <v>1378.303394723867</v>
+        <v>1590.043462292369</v>
       </c>
       <c r="AC11" t="n">
-        <v>1246.760053192384</v>
+        <v>1438.2919458912</v>
       </c>
       <c r="AD11" t="n">
-        <v>1007351.961330096</v>
+        <v>1162105.09708656</v>
       </c>
       <c r="AE11" t="n">
-        <v>1378303.394723867</v>
+        <v>1590043.462292369</v>
       </c>
       <c r="AF11" t="n">
         <v>5.642913263940429e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.43333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1246760.053192385</v>
+        <v>1438291.9458912</v>
       </c>
     </row>
     <row r="12">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1006.220516755658</v>
+        <v>1160.973652512121</v>
       </c>
       <c r="AB12" t="n">
-        <v>1376.755302341308</v>
+        <v>1588.49536990981</v>
       </c>
       <c r="AC12" t="n">
-        <v>1245.359708574056</v>
+        <v>1436.891601272871</v>
       </c>
       <c r="AD12" t="n">
-        <v>1006220.516755658</v>
+        <v>1160973.652512121</v>
       </c>
       <c r="AE12" t="n">
-        <v>1376755.302341308</v>
+        <v>1588495.36990981</v>
       </c>
       <c r="AF12" t="n">
         <v>5.647859210852071e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.40833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1245359.708574056</v>
+        <v>1436891.601272871</v>
       </c>
     </row>
     <row r="13">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1009.347408162909</v>
+        <v>1164.100543919373</v>
       </c>
       <c r="AB13" t="n">
-        <v>1381.033653113423</v>
+        <v>1592.773720681925</v>
       </c>
       <c r="AC13" t="n">
-        <v>1249.229739553183</v>
+        <v>1440.761632251999</v>
       </c>
       <c r="AD13" t="n">
-        <v>1009347.408162909</v>
+        <v>1164100.543919373</v>
       </c>
       <c r="AE13" t="n">
-        <v>1381033.653113423</v>
+        <v>1592773.720681925</v>
       </c>
       <c r="AF13" t="n">
         <v>5.647447048609434e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.40833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1249229.739553183</v>
+        <v>1440761.632251999</v>
       </c>
     </row>
   </sheetData>
@@ -7927,28 +7927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1371.134206556703</v>
+        <v>1567.532003283255</v>
       </c>
       <c r="AB2" t="n">
-        <v>1876.046311582892</v>
+        <v>2144.766441523446</v>
       </c>
       <c r="AC2" t="n">
-        <v>1696.999084652956</v>
+        <v>1940.072942543054</v>
       </c>
       <c r="AD2" t="n">
-        <v>1371134.206556703</v>
+        <v>1567532.003283255</v>
       </c>
       <c r="AE2" t="n">
-        <v>1876046.311582892</v>
+        <v>2144766.441523446</v>
       </c>
       <c r="AF2" t="n">
         <v>5.702265895499288e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1696999.084652956</v>
+        <v>1940072.942543054</v>
       </c>
     </row>
     <row r="3">
@@ -8033,28 +8033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>936.9889310816558</v>
+        <v>1105.319271559172</v>
       </c>
       <c r="AB3" t="n">
-        <v>1282.02959254014</v>
+        <v>1512.346590591983</v>
       </c>
       <c r="AC3" t="n">
-        <v>1159.674487567942</v>
+        <v>1368.010354577654</v>
       </c>
       <c r="AD3" t="n">
-        <v>936988.9310816558</v>
+        <v>1105319.271559172</v>
       </c>
       <c r="AE3" t="n">
-        <v>1282029.59254014</v>
+        <v>1512346.590591983</v>
       </c>
       <c r="AF3" t="n">
         <v>7.118627743231254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.67083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1159674.487567942</v>
+        <v>1368010.354577655</v>
       </c>
     </row>
     <row r="4">
@@ -8139,28 +8139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.175898938099</v>
+        <v>975.8636067737231</v>
       </c>
       <c r="AB4" t="n">
-        <v>1130.410313235376</v>
+        <v>1335.219638851677</v>
       </c>
       <c r="AC4" t="n">
-        <v>1022.52553948103</v>
+        <v>1207.788150512205</v>
       </c>
       <c r="AD4" t="n">
-        <v>826175.8989380989</v>
+        <v>975863.606773723</v>
       </c>
       <c r="AE4" t="n">
-        <v>1130410.313235376</v>
+        <v>1335219.638851677</v>
       </c>
       <c r="AF4" t="n">
         <v>7.569079135097269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1022525.53948103</v>
+        <v>1207788.150512205</v>
       </c>
     </row>
     <row r="5">
@@ -8245,28 +8245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>822.4669003772024</v>
+        <v>972.1546082128266</v>
       </c>
       <c r="AB5" t="n">
-        <v>1125.335497774889</v>
+        <v>1330.14482339119</v>
       </c>
       <c r="AC5" t="n">
-        <v>1017.935057285544</v>
+        <v>1203.197668316719</v>
       </c>
       <c r="AD5" t="n">
-        <v>822466.9003772023</v>
+        <v>972154.6082128265</v>
       </c>
       <c r="AE5" t="n">
-        <v>1125335.497774889</v>
+        <v>1330144.82339119</v>
       </c>
       <c r="AF5" t="n">
         <v>7.597843591793693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.55</v>
       </c>
       <c r="AH5" t="n">
-        <v>1017935.057285544</v>
+        <v>1203197.668316719</v>
       </c>
     </row>
   </sheetData>
@@ -8542,28 +8542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1947.478177226076</v>
+        <v>2184.508265019267</v>
       </c>
       <c r="AB2" t="n">
-        <v>2664.625558754201</v>
+        <v>2988.940581902299</v>
       </c>
       <c r="AC2" t="n">
-        <v>2410.31743525216</v>
+        <v>2703.680287769997</v>
       </c>
       <c r="AD2" t="n">
-        <v>1947478.177226076</v>
+        <v>2184508.265019267</v>
       </c>
       <c r="AE2" t="n">
-        <v>2664625.558754201</v>
+        <v>2988940.581902299</v>
       </c>
       <c r="AF2" t="n">
         <v>4.272562732879868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2410317.43525216</v>
+        <v>2703680.287769997</v>
       </c>
     </row>
     <row r="3">
@@ -8648,28 +8648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1187.671167842118</v>
+        <v>1367.771669445655</v>
       </c>
       <c r="AB3" t="n">
-        <v>1625.024088195562</v>
+        <v>1871.445539962889</v>
       </c>
       <c r="AC3" t="n">
-        <v>1469.934069953809</v>
+        <v>1692.837404219142</v>
       </c>
       <c r="AD3" t="n">
-        <v>1187671.167842118</v>
+        <v>1367771.669445655</v>
       </c>
       <c r="AE3" t="n">
-        <v>1625024.088195562</v>
+        <v>1871445.539962889</v>
       </c>
       <c r="AF3" t="n">
         <v>5.768657169311565e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.98333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1469934.069953809</v>
+        <v>1692837.404219142</v>
       </c>
     </row>
     <row r="4">
@@ -8754,28 +8754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1029.648298147036</v>
+        <v>1190.750505104692</v>
       </c>
       <c r="AB4" t="n">
-        <v>1408.810226401763</v>
+        <v>1629.237373288988</v>
       </c>
       <c r="AC4" t="n">
-        <v>1274.355355671549</v>
+        <v>1473.745245031302</v>
       </c>
       <c r="AD4" t="n">
-        <v>1029648.298147036</v>
+        <v>1190750.505104692</v>
       </c>
       <c r="AE4" t="n">
-        <v>1408810.226401763</v>
+        <v>1629237.373288988</v>
       </c>
       <c r="AF4" t="n">
         <v>6.286785112664534e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.01666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1274355.355671549</v>
+        <v>1473745.245031302</v>
       </c>
     </row>
     <row r="5">
@@ -8860,28 +8860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.6370514870125</v>
+        <v>1088.358173542675</v>
       </c>
       <c r="AB5" t="n">
-        <v>1281.548135354917</v>
+        <v>1489.139668014978</v>
       </c>
       <c r="AC5" t="n">
-        <v>1159.238979980748</v>
+        <v>1347.018268120279</v>
       </c>
       <c r="AD5" t="n">
-        <v>936637.0514870125</v>
+        <v>1088358.173542675</v>
       </c>
       <c r="AE5" t="n">
-        <v>1281548.135354917</v>
+        <v>1489139.668014978</v>
       </c>
       <c r="AF5" t="n">
         <v>6.56079508270697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.6375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1159238.979980748</v>
+        <v>1347018.268120279</v>
       </c>
     </row>
     <row r="6">
@@ -8966,28 +8966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>884.3388074189744</v>
+        <v>1036.025764055856</v>
       </c>
       <c r="AB6" t="n">
-        <v>1209.991370585336</v>
+        <v>1417.536156612149</v>
       </c>
       <c r="AC6" t="n">
-        <v>1094.511492410225</v>
+        <v>1282.248495349576</v>
       </c>
       <c r="AD6" t="n">
-        <v>884338.8074189743</v>
+        <v>1036025.764055856</v>
       </c>
       <c r="AE6" t="n">
-        <v>1209991.370585335</v>
+        <v>1417536.156612149</v>
       </c>
       <c r="AF6" t="n">
         <v>6.702782067183504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.96666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1094511.492410225</v>
+        <v>1282248.495349576</v>
       </c>
     </row>
     <row r="7">
@@ -9072,28 +9072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>880.5582516507783</v>
+        <v>1032.24520828766</v>
       </c>
       <c r="AB7" t="n">
-        <v>1204.81864739694</v>
+        <v>1412.363433423753</v>
       </c>
       <c r="AC7" t="n">
-        <v>1089.832446662968</v>
+        <v>1277.569449602318</v>
       </c>
       <c r="AD7" t="n">
-        <v>880558.2516507783</v>
+        <v>1032245.20828766</v>
       </c>
       <c r="AE7" t="n">
-        <v>1204818.64739694</v>
+        <v>1412363.433423753</v>
       </c>
       <c r="AF7" t="n">
         <v>6.721713665113709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.88333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1089832.446662968</v>
+        <v>1277569.449602318</v>
       </c>
     </row>
   </sheetData>
@@ -9369,28 +9369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1026.182588518927</v>
+        <v>1211.139121504909</v>
       </c>
       <c r="AB2" t="n">
-        <v>1404.068289592266</v>
+        <v>1657.133977730039</v>
       </c>
       <c r="AC2" t="n">
-        <v>1270.065982655801</v>
+        <v>1498.979436697628</v>
       </c>
       <c r="AD2" t="n">
-        <v>1026182.588518927</v>
+        <v>1211139.121504909</v>
       </c>
       <c r="AE2" t="n">
-        <v>1404068.289592266</v>
+        <v>1657133.977730039</v>
       </c>
       <c r="AF2" t="n">
         <v>7.232253570048944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.9625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1270065.982655801</v>
+        <v>1498979.436697628</v>
       </c>
     </row>
     <row r="3">
@@ -9475,28 +9475,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.0501162571464</v>
+        <v>935.1855998618927</v>
       </c>
       <c r="AB3" t="n">
-        <v>1064.56249421161</v>
+        <v>1279.562195207901</v>
       </c>
       <c r="AC3" t="n">
-        <v>962.9621438868983</v>
+        <v>1157.442575174079</v>
       </c>
       <c r="AD3" t="n">
-        <v>778050.1162571465</v>
+        <v>935185.5998618926</v>
       </c>
       <c r="AE3" t="n">
-        <v>1064562.49421161</v>
+        <v>1279562.195207901</v>
       </c>
       <c r="AF3" t="n">
         <v>8.451905661718095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.48333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>962962.1438868983</v>
+        <v>1157442.575174079</v>
       </c>
     </row>
     <row r="4">
@@ -9581,28 +9581,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>779.7950242175772</v>
+        <v>936.9305078223231</v>
       </c>
       <c r="AB4" t="n">
-        <v>1066.949954262978</v>
+        <v>1281.949655259268</v>
       </c>
       <c r="AC4" t="n">
-        <v>965.1217481017845</v>
+        <v>1159.602179388964</v>
       </c>
       <c r="AD4" t="n">
-        <v>779795.0242175772</v>
+        <v>936930.5078223231</v>
       </c>
       <c r="AE4" t="n">
-        <v>1066949.954262978</v>
+        <v>1281949.655259268</v>
       </c>
       <c r="AF4" t="n">
         <v>8.465083966328242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.43333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>965121.7481017845</v>
+        <v>1159602.179388965</v>
       </c>
     </row>
   </sheetData>
@@ -9878,28 +9878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4199.566736527883</v>
+        <v>4549.019838848087</v>
       </c>
       <c r="AB2" t="n">
-        <v>5746.032480726367</v>
+        <v>6224.169632103708</v>
       </c>
       <c r="AC2" t="n">
-        <v>5197.639205372862</v>
+        <v>5630.143618092438</v>
       </c>
       <c r="AD2" t="n">
-        <v>4199566.736527883</v>
+        <v>4549019.838848087</v>
       </c>
       <c r="AE2" t="n">
-        <v>5746032.480726367</v>
+        <v>6224169.632103708</v>
       </c>
       <c r="AF2" t="n">
         <v>2.402775367509114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.74583333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>5197639.205372863</v>
+        <v>5630143.618092438</v>
       </c>
     </row>
     <row r="3">
@@ -9984,28 +9984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1821.419084347076</v>
+        <v>2034.947184883704</v>
       </c>
       <c r="AB3" t="n">
-        <v>2492.145946542475</v>
+        <v>2784.30451389164</v>
       </c>
       <c r="AC3" t="n">
-        <v>2254.299035153265</v>
+        <v>2518.574398881751</v>
       </c>
       <c r="AD3" t="n">
-        <v>1821419.084347076</v>
+        <v>2034947.184883703</v>
       </c>
       <c r="AE3" t="n">
-        <v>2492145.946542475</v>
+        <v>2784304.513891641</v>
       </c>
       <c r="AF3" t="n">
         <v>4.010792762772159e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.78333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2254299.035153265</v>
+        <v>2518574.398881751</v>
       </c>
     </row>
     <row r="4">
@@ -10090,28 +10090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1471.924011595707</v>
+        <v>1656.25800622815</v>
       </c>
       <c r="AB4" t="n">
-        <v>2013.951369369636</v>
+        <v>2266.165273067642</v>
       </c>
       <c r="AC4" t="n">
-        <v>1821.742677275497</v>
+        <v>2049.885639989003</v>
       </c>
       <c r="AD4" t="n">
-        <v>1471924.011595707</v>
+        <v>1656258.00622815</v>
       </c>
       <c r="AE4" t="n">
-        <v>2013951.369369636</v>
+        <v>2266165.273067642</v>
       </c>
       <c r="AF4" t="n">
         <v>4.592784051152756e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.4875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1821742.677275497</v>
+        <v>2049885.639989003</v>
       </c>
     </row>
     <row r="5">
@@ -10196,28 +10196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1325.910155200001</v>
+        <v>1490.894623272352</v>
       </c>
       <c r="AB5" t="n">
-        <v>1814.168769372318</v>
+        <v>2039.907797189941</v>
       </c>
       <c r="AC5" t="n">
-        <v>1641.027048225283</v>
+        <v>1845.221860054707</v>
       </c>
       <c r="AD5" t="n">
-        <v>1325910.155200001</v>
+        <v>1490894.623272352</v>
       </c>
       <c r="AE5" t="n">
-        <v>1814168.769372318</v>
+        <v>2039907.797189941</v>
       </c>
       <c r="AF5" t="n">
         <v>4.902884454291278e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.17916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1641027.048225283</v>
+        <v>1845221.860054707</v>
       </c>
     </row>
     <row r="6">
@@ -10302,28 +10302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1234.682257333402</v>
+        <v>1399.699879794676</v>
       </c>
       <c r="AB6" t="n">
-        <v>1689.346734820431</v>
+        <v>1915.131125935648</v>
       </c>
       <c r="AC6" t="n">
-        <v>1528.117853462202</v>
+        <v>1732.353699179766</v>
       </c>
       <c r="AD6" t="n">
-        <v>1234682.257333402</v>
+        <v>1399699.879794676</v>
       </c>
       <c r="AE6" t="n">
-        <v>1689346.734820431</v>
+        <v>1915131.125935648</v>
       </c>
       <c r="AF6" t="n">
         <v>5.091518811064256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.9125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1528117.853462202</v>
+        <v>1732353.699179766</v>
       </c>
     </row>
     <row r="7">
@@ -10408,28 +10408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1186.717337756871</v>
+        <v>1341.992877130395</v>
       </c>
       <c r="AB7" t="n">
-        <v>1623.719015792914</v>
+        <v>1836.173859037098</v>
       </c>
       <c r="AC7" t="n">
-        <v>1468.753551829589</v>
+        <v>1660.932003016794</v>
       </c>
       <c r="AD7" t="n">
-        <v>1186717.337756871</v>
+        <v>1341992.877130395</v>
       </c>
       <c r="AE7" t="n">
-        <v>1623719.015792914</v>
+        <v>1836173.859037098</v>
       </c>
       <c r="AF7" t="n">
         <v>5.216604706493672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1468753.551829589</v>
+        <v>1660932.003016794</v>
       </c>
     </row>
     <row r="8">
@@ -10514,28 +10514,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1139.370469931056</v>
+        <v>1294.713329112284</v>
       </c>
       <c r="AB8" t="n">
-        <v>1558.936942437245</v>
+        <v>1771.483895612271</v>
       </c>
       <c r="AC8" t="n">
-        <v>1410.154188632774</v>
+        <v>1602.415958908298</v>
       </c>
       <c r="AD8" t="n">
-        <v>1139370.469931056</v>
+        <v>1294713.329112284</v>
       </c>
       <c r="AE8" t="n">
-        <v>1558936.942437245</v>
+        <v>1771483.895612271</v>
       </c>
       <c r="AF8" t="n">
         <v>5.312329603960557e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.54583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1410154.188632774</v>
+        <v>1602415.958908298</v>
       </c>
     </row>
     <row r="9">
@@ -10620,28 +10620,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1107.690504171149</v>
+        <v>1262.931878125892</v>
       </c>
       <c r="AB9" t="n">
-        <v>1515.591015663091</v>
+        <v>1727.999112274027</v>
       </c>
       <c r="AC9" t="n">
-        <v>1370.945136273555</v>
+        <v>1563.08130226058</v>
       </c>
       <c r="AD9" t="n">
-        <v>1107690.504171149</v>
+        <v>1262931.878125892</v>
       </c>
       <c r="AE9" t="n">
-        <v>1515591.01566309</v>
+        <v>1727999.112274027</v>
       </c>
       <c r="AF9" t="n">
         <v>5.380302325271076e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1370945.136273555</v>
+        <v>1563081.30226058</v>
       </c>
     </row>
     <row r="10">
@@ -10726,28 +10726,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1071.488760273098</v>
+        <v>1226.797454035546</v>
       </c>
       <c r="AB10" t="n">
-        <v>1466.058192553554</v>
+        <v>1678.558399095333</v>
       </c>
       <c r="AC10" t="n">
-        <v>1326.139656281839</v>
+        <v>1518.359141357183</v>
       </c>
       <c r="AD10" t="n">
-        <v>1071488.760273098</v>
+        <v>1226797.454035546</v>
       </c>
       <c r="AE10" t="n">
-        <v>1466058.192553554</v>
+        <v>1678558.399095332</v>
       </c>
       <c r="AF10" t="n">
         <v>5.439828732099223e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.80833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1326139.656281839</v>
+        <v>1518359.141357183</v>
       </c>
     </row>
     <row r="11">
@@ -10832,28 +10832,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1045.496849592995</v>
+        <v>1200.805543355442</v>
       </c>
       <c r="AB11" t="n">
-        <v>1430.494913678867</v>
+        <v>1642.995120220645</v>
       </c>
       <c r="AC11" t="n">
-        <v>1293.970486829576</v>
+        <v>1486.18997190492</v>
       </c>
       <c r="AD11" t="n">
-        <v>1045496.849592995</v>
+        <v>1200805.543355442</v>
       </c>
       <c r="AE11" t="n">
-        <v>1430494.913678867</v>
+        <v>1642995.120220645</v>
       </c>
       <c r="AF11" t="n">
         <v>5.485680153574957e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.55</v>
       </c>
       <c r="AH11" t="n">
-        <v>1293970.486829576</v>
+        <v>1486189.97190492</v>
       </c>
     </row>
     <row r="12">
@@ -10938,28 +10938,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1028.021645617207</v>
+        <v>1183.228854153169</v>
       </c>
       <c r="AB12" t="n">
-        <v>1406.584568647605</v>
+        <v>1618.945918625294</v>
       </c>
       <c r="AC12" t="n">
-        <v>1272.342111569717</v>
+        <v>1464.435992356563</v>
       </c>
       <c r="AD12" t="n">
-        <v>1028021.645617206</v>
+        <v>1183228.854153169</v>
       </c>
       <c r="AE12" t="n">
-        <v>1406584.568647605</v>
+        <v>1618945.918625294</v>
       </c>
       <c r="AF12" t="n">
         <v>5.51544335698903e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.38333333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1272342.111569718</v>
+        <v>1464435.992356563</v>
       </c>
     </row>
     <row r="13">
@@ -11044,28 +11044,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1027.524282078064</v>
+        <v>1173.090892752761</v>
       </c>
       <c r="AB13" t="n">
-        <v>1405.904053911219</v>
+        <v>1605.074712581964</v>
       </c>
       <c r="AC13" t="n">
-        <v>1271.726544204664</v>
+        <v>1451.888634749649</v>
       </c>
       <c r="AD13" t="n">
-        <v>1027524.282078064</v>
+        <v>1173090.892752761</v>
       </c>
       <c r="AE13" t="n">
-        <v>1405904.053911219</v>
+        <v>1605074.712581964</v>
       </c>
       <c r="AF13" t="n">
         <v>5.521074233310612e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.35416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1271726.544204664</v>
+        <v>1451888.634749649</v>
       </c>
     </row>
     <row r="14">
@@ -11150,28 +11150,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1030.793627281155</v>
+        <v>1186.000835817118</v>
       </c>
       <c r="AB14" t="n">
-        <v>1410.37731625142</v>
+        <v>1622.738666229108</v>
       </c>
       <c r="AC14" t="n">
-        <v>1275.772884665379</v>
+        <v>1467.866765452224</v>
       </c>
       <c r="AD14" t="n">
-        <v>1030793.627281155</v>
+        <v>1186000.835817118</v>
       </c>
       <c r="AE14" t="n">
-        <v>1410377.31625142</v>
+        <v>1622738.666229108</v>
       </c>
       <c r="AF14" t="n">
         <v>5.519465411504446e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.3625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1275772.884665379</v>
+        <v>1467866.765452224</v>
       </c>
     </row>
   </sheetData>
@@ -11447,28 +11447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>861.7918387218039</v>
+        <v>1036.324356783684</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.14161331181</v>
+        <v>1417.944704355344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1066.605992672979</v>
+        <v>1282.618051869561</v>
       </c>
       <c r="AD2" t="n">
-        <v>861791.8387218039</v>
+        <v>1036324.356783684</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179141.61331181</v>
+        <v>1417944.704355344</v>
       </c>
       <c r="AF2" t="n">
         <v>8.377724476996091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.85833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1066605.992672979</v>
+        <v>1282618.051869561</v>
       </c>
     </row>
     <row r="3">
@@ -11553,28 +11553,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.5673927362699</v>
+        <v>914.6877196829693</v>
       </c>
       <c r="AB3" t="n">
-        <v>1037.905372373247</v>
+        <v>1251.516091244447</v>
       </c>
       <c r="AC3" t="n">
-        <v>938.8491403432826</v>
+        <v>1132.073152009943</v>
       </c>
       <c r="AD3" t="n">
-        <v>758567.3927362699</v>
+        <v>914687.7196829693</v>
       </c>
       <c r="AE3" t="n">
-        <v>1037905.372373247</v>
+        <v>1251516.091244447</v>
       </c>
       <c r="AF3" t="n">
         <v>9.034532308196044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>938849.1403432826</v>
+        <v>1132073.152009943</v>
       </c>
     </row>
   </sheetData>
@@ -11850,28 +11850,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2706.750237566629</v>
+        <v>2984.679456645561</v>
       </c>
       <c r="AB2" t="n">
-        <v>3703.495088431579</v>
+        <v>4083.770107347179</v>
       </c>
       <c r="AC2" t="n">
-        <v>3350.038715079532</v>
+        <v>3694.020819909153</v>
       </c>
       <c r="AD2" t="n">
-        <v>2706750.237566628</v>
+        <v>2984679.456645561</v>
       </c>
       <c r="AE2" t="n">
-        <v>3703495.08843158</v>
+        <v>4083770.107347179</v>
       </c>
       <c r="AF2" t="n">
         <v>3.314663720313083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.33333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3350038.715079532</v>
+        <v>3694020.819909154</v>
       </c>
     </row>
     <row r="3">
@@ -11956,28 +11956,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1451.44119526618</v>
+        <v>1643.074420292775</v>
       </c>
       <c r="AB3" t="n">
-        <v>1985.925876429496</v>
+        <v>2248.126909172099</v>
       </c>
       <c r="AC3" t="n">
-        <v>1796.391898047537</v>
+        <v>2033.568832226648</v>
       </c>
       <c r="AD3" t="n">
-        <v>1451441.19526618</v>
+        <v>1643074.420292775</v>
       </c>
       <c r="AE3" t="n">
-        <v>1985925.876429496</v>
+        <v>2248126.909172099</v>
       </c>
       <c r="AF3" t="n">
         <v>4.866227511514259e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1796391.898047537</v>
+        <v>2033568.832226648</v>
       </c>
     </row>
     <row r="4">
@@ -12062,28 +12062,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1216.117249296211</v>
+        <v>1388.57358675562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1663.945271793596</v>
+        <v>1899.907640942205</v>
       </c>
       <c r="AC4" t="n">
-        <v>1505.140670415471</v>
+        <v>1718.583122227802</v>
       </c>
       <c r="AD4" t="n">
-        <v>1216117.249296211</v>
+        <v>1388573.58675562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1663945.271793596</v>
+        <v>1899907.640942205</v>
       </c>
       <c r="AF4" t="n">
         <v>5.415683666341711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1505140.670415471</v>
+        <v>1718583.122227802</v>
       </c>
     </row>
     <row r="5">
@@ -12168,28 +12168,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1105.551163323536</v>
+        <v>1268.520542225838</v>
       </c>
       <c r="AB5" t="n">
-        <v>1512.66387513433</v>
+        <v>1735.645769050032</v>
       </c>
       <c r="AC5" t="n">
-        <v>1368.297357928591</v>
+        <v>1569.998172846032</v>
       </c>
       <c r="AD5" t="n">
-        <v>1105551.163323536</v>
+        <v>1268520.542225837</v>
       </c>
       <c r="AE5" t="n">
-        <v>1512663.87513433</v>
+        <v>1735645.769050031</v>
       </c>
       <c r="AF5" t="n">
         <v>5.704305007050422e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.7375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1368297.357928591</v>
+        <v>1569998.172846032</v>
       </c>
     </row>
     <row r="6">
@@ -12274,28 +12274,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1041.231618063402</v>
+        <v>1204.166831546923</v>
       </c>
       <c r="AB6" t="n">
-        <v>1424.659035731343</v>
+        <v>1647.594183013797</v>
       </c>
       <c r="AC6" t="n">
-        <v>1288.691576882658</v>
+        <v>1490.350106599919</v>
       </c>
       <c r="AD6" t="n">
-        <v>1041231.618063402</v>
+        <v>1204166.831546923</v>
       </c>
       <c r="AE6" t="n">
-        <v>1424659.035731343</v>
+        <v>1647594.183013797</v>
       </c>
       <c r="AF6" t="n">
         <v>5.876402203994746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.775</v>
       </c>
       <c r="AH6" t="n">
-        <v>1288691.576882658</v>
+        <v>1490350.106599919</v>
       </c>
     </row>
     <row r="7">
@@ -12380,28 +12380,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>997.0125917946906</v>
+        <v>1150.326207105694</v>
       </c>
       <c r="AB7" t="n">
-        <v>1364.156613184734</v>
+        <v>1573.927065372597</v>
       </c>
       <c r="AC7" t="n">
-        <v>1233.963420628214</v>
+        <v>1423.713675273946</v>
       </c>
       <c r="AD7" t="n">
-        <v>997012.5917946906</v>
+        <v>1150326.207105694</v>
       </c>
       <c r="AE7" t="n">
-        <v>1364156.613184734</v>
+        <v>1573927.065372597</v>
       </c>
       <c r="AF7" t="n">
         <v>6.001441573649607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.11666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1233963.420628214</v>
+        <v>1423713.675273946</v>
       </c>
     </row>
     <row r="8">
@@ -12486,28 +12486,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>954.292547043774</v>
+        <v>1107.673482162482</v>
       </c>
       <c r="AB8" t="n">
-        <v>1305.705163281169</v>
+        <v>1515.567725399874</v>
       </c>
       <c r="AC8" t="n">
-        <v>1181.09049506632</v>
+        <v>1370.924068800372</v>
       </c>
       <c r="AD8" t="n">
-        <v>954292.547043774</v>
+        <v>1107673.482162482</v>
       </c>
       <c r="AE8" t="n">
-        <v>1305705.163281169</v>
+        <v>1515567.725399874</v>
       </c>
       <c r="AF8" t="n">
         <v>6.082112134717259e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.70416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1181090.495066321</v>
+        <v>1370924.068800372</v>
       </c>
     </row>
     <row r="9">
@@ -12592,28 +12592,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>945.4141781541067</v>
+        <v>1098.795113272814</v>
       </c>
       <c r="AB9" t="n">
-        <v>1293.557387280335</v>
+        <v>1503.41994939904</v>
       </c>
       <c r="AC9" t="n">
-        <v>1170.102085757495</v>
+        <v>1359.935659491546</v>
       </c>
       <c r="AD9" t="n">
-        <v>945414.1781541067</v>
+        <v>1098795.113272815</v>
       </c>
       <c r="AE9" t="n">
-        <v>1293557.387280335</v>
+        <v>1503419.94939904</v>
       </c>
       <c r="AF9" t="n">
         <v>6.107209642604974e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.575</v>
       </c>
       <c r="AH9" t="n">
-        <v>1170102.085757495</v>
+        <v>1359935.659491546</v>
       </c>
     </row>
     <row r="10">
@@ -12698,28 +12698,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>947.891567585839</v>
+        <v>1101.272502704547</v>
       </c>
       <c r="AB10" t="n">
-        <v>1296.947060795539</v>
+        <v>1506.809622914244</v>
       </c>
       <c r="AC10" t="n">
-        <v>1173.168253589845</v>
+        <v>1363.001827323896</v>
       </c>
       <c r="AD10" t="n">
-        <v>947891.567585839</v>
+        <v>1101272.502704547</v>
       </c>
       <c r="AE10" t="n">
-        <v>1296947.060795539</v>
+        <v>1506809.622914244</v>
       </c>
       <c r="AF10" t="n">
         <v>6.106313303037555e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.57916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1173168.253589845</v>
+        <v>1363001.827323896</v>
       </c>
     </row>
   </sheetData>
@@ -12995,28 +12995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3360.825160981467</v>
+        <v>3669.52440420596</v>
       </c>
       <c r="AB2" t="n">
-        <v>4598.429254396899</v>
+        <v>5020.805177826114</v>
       </c>
       <c r="AC2" t="n">
-        <v>4159.561620293078</v>
+        <v>4541.626578398525</v>
       </c>
       <c r="AD2" t="n">
-        <v>3360825.160981467</v>
+        <v>3669524.40420596</v>
       </c>
       <c r="AE2" t="n">
-        <v>4598429.254396899</v>
+        <v>5020805.177826114</v>
       </c>
       <c r="AF2" t="n">
         <v>2.821206087674517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.47916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4159561.620293078</v>
+        <v>4541626.578398525</v>
       </c>
     </row>
     <row r="3">
@@ -13101,28 +13101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1635.076683619882</v>
+        <v>1828.031172480777</v>
       </c>
       <c r="AB3" t="n">
-        <v>2237.184053021007</v>
+        <v>2501.192897231746</v>
       </c>
       <c r="AC3" t="n">
-        <v>2023.670346908221</v>
+        <v>2262.482557566227</v>
       </c>
       <c r="AD3" t="n">
-        <v>1635076.683619882</v>
+        <v>1828031.172480777</v>
       </c>
       <c r="AE3" t="n">
-        <v>2237184.053021007</v>
+        <v>2501192.897231746</v>
       </c>
       <c r="AF3" t="n">
         <v>4.404195018560414e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>2023670.346908221</v>
+        <v>2262482.557566226</v>
       </c>
     </row>
     <row r="4">
@@ -13207,28 +13207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1342.081009258325</v>
+        <v>1515.699151833579</v>
       </c>
       <c r="AB4" t="n">
-        <v>1836.294445302647</v>
+        <v>2073.84644746598</v>
       </c>
       <c r="AC4" t="n">
-        <v>1661.041080698402</v>
+        <v>1875.921453181596</v>
       </c>
       <c r="AD4" t="n">
-        <v>1342081.009258325</v>
+        <v>1515699.151833578</v>
       </c>
       <c r="AE4" t="n">
-        <v>1836294.445302647</v>
+        <v>2073846.447465979</v>
       </c>
       <c r="AF4" t="n">
         <v>4.972328138330526e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.44583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1661041.080698402</v>
+        <v>1875921.453181596</v>
       </c>
     </row>
     <row r="5">
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1216.029677425513</v>
+        <v>1379.996729567337</v>
       </c>
       <c r="AB5" t="n">
-        <v>1663.825452096709</v>
+        <v>1888.172406552962</v>
       </c>
       <c r="AC5" t="n">
-        <v>1505.032286142286</v>
+        <v>1707.967882138163</v>
       </c>
       <c r="AD5" t="n">
-        <v>1216029.677425513</v>
+        <v>1379996.729567337</v>
       </c>
       <c r="AE5" t="n">
-        <v>1663825.452096709</v>
+        <v>1888172.406552962</v>
       </c>
       <c r="AF5" t="n">
         <v>5.27056629874596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.44583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1505032.286142286</v>
+        <v>1707967.882138163</v>
       </c>
     </row>
     <row r="6">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1144.40483128873</v>
+        <v>1308.337718011773</v>
       </c>
       <c r="AB6" t="n">
-        <v>1565.825177747163</v>
+        <v>1790.125385570168</v>
       </c>
       <c r="AC6" t="n">
-        <v>1416.385020432412</v>
+        <v>1619.278331228109</v>
       </c>
       <c r="AD6" t="n">
-        <v>1144404.83128873</v>
+        <v>1308337.718011773</v>
       </c>
       <c r="AE6" t="n">
-        <v>1565825.177747163</v>
+        <v>1790125.385570168</v>
       </c>
       <c r="AF6" t="n">
         <v>5.447817063588609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.35416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1416385.020432412</v>
+        <v>1619278.331228109</v>
       </c>
     </row>
     <row r="7">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1089.58419115182</v>
+        <v>1244.001638086699</v>
       </c>
       <c r="AB7" t="n">
-        <v>1490.81715939589</v>
+        <v>1702.097922709154</v>
       </c>
       <c r="AC7" t="n">
-        <v>1348.53566207817</v>
+        <v>1539.65208587523</v>
       </c>
       <c r="AD7" t="n">
-        <v>1089584.19115182</v>
+        <v>1244001.638086699</v>
       </c>
       <c r="AE7" t="n">
-        <v>1490817.15939589</v>
+        <v>1702097.922709154</v>
       </c>
       <c r="AF7" t="n">
         <v>5.573880853381233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1348535.66207817</v>
+        <v>1539652.08587523</v>
       </c>
     </row>
     <row r="8">
@@ -13631,28 +13631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1052.123427946989</v>
+        <v>1206.439389655382</v>
       </c>
       <c r="AB8" t="n">
-        <v>1439.561690526805</v>
+        <v>1650.70359727598</v>
       </c>
       <c r="AC8" t="n">
-        <v>1302.171943220449</v>
+        <v>1493.16276272901</v>
       </c>
       <c r="AD8" t="n">
-        <v>1052123.427946989</v>
+        <v>1206439.389655382</v>
       </c>
       <c r="AE8" t="n">
-        <v>1439561.690526805</v>
+        <v>1650703.59727598</v>
       </c>
       <c r="AF8" t="n">
         <v>5.666102015041608e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.10833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1302171.943220449</v>
+        <v>1493162.76272901</v>
       </c>
     </row>
     <row r="9">
@@ -13737,28 +13737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1010.955359027603</v>
+        <v>1165.338640543702</v>
       </c>
       <c r="AB9" t="n">
-        <v>1383.233722424283</v>
+        <v>1594.4677391043</v>
       </c>
       <c r="AC9" t="n">
-        <v>1251.219837336831</v>
+        <v>1442.293975933711</v>
       </c>
       <c r="AD9" t="n">
-        <v>1010955.359027603</v>
+        <v>1165338.640543702</v>
       </c>
       <c r="AE9" t="n">
-        <v>1383233.722424283</v>
+        <v>1594467.7391043</v>
       </c>
       <c r="AF9" t="n">
         <v>5.737171534119329e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.725</v>
       </c>
       <c r="AH9" t="n">
-        <v>1251219.837336831</v>
+        <v>1442293.975933711</v>
       </c>
     </row>
     <row r="10">
@@ -13843,28 +13843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>989.936094909556</v>
+        <v>1144.319376425654</v>
       </c>
       <c r="AB10" t="n">
-        <v>1354.474237953484</v>
+        <v>1565.7082546335</v>
       </c>
       <c r="AC10" t="n">
-        <v>1225.205117699735</v>
+        <v>1416.279256296615</v>
       </c>
       <c r="AD10" t="n">
-        <v>989936.094909556</v>
+        <v>1144319.376425654</v>
       </c>
       <c r="AE10" t="n">
-        <v>1354474.237953484</v>
+        <v>1565708.2546335</v>
       </c>
       <c r="AF10" t="n">
         <v>5.776090556471413e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.51666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1225205.117699735</v>
+        <v>1416279.256296615</v>
       </c>
     </row>
     <row r="11">
@@ -13949,28 +13949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>986.2208868221259</v>
+        <v>1140.502683111739</v>
       </c>
       <c r="AB11" t="n">
-        <v>1349.390926344849</v>
+        <v>1560.486086460776</v>
       </c>
       <c r="AC11" t="n">
-        <v>1220.606950216556</v>
+        <v>1411.555484524937</v>
       </c>
       <c r="AD11" t="n">
-        <v>986220.8868221259</v>
+        <v>1140502.683111739</v>
       </c>
       <c r="AE11" t="n">
-        <v>1349390.926344849</v>
+        <v>1560486.086460776</v>
       </c>
       <c r="AF11" t="n">
         <v>5.7879354763177e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.45416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1220606.950216556</v>
+        <v>1411555.484524937</v>
       </c>
     </row>
   </sheetData>
@@ -14246,28 +14246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5311.973972308419</v>
+        <v>5702.351720734001</v>
       </c>
       <c r="AB2" t="n">
-        <v>7268.077136665018</v>
+        <v>7802.209194311705</v>
       </c>
       <c r="AC2" t="n">
-        <v>6574.422055551762</v>
+        <v>7057.577299275681</v>
       </c>
       <c r="AD2" t="n">
-        <v>5311973.97230842</v>
+        <v>5702351.720734001</v>
       </c>
       <c r="AE2" t="n">
-        <v>7268077.136665018</v>
+        <v>7802209.194311704</v>
       </c>
       <c r="AF2" t="n">
         <v>2.041241101365816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.49583333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>6574422.055551763</v>
+        <v>7057577.299275681</v>
       </c>
     </row>
     <row r="3">
@@ -14352,28 +14352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2031.673993631141</v>
+        <v>2256.150867259319</v>
       </c>
       <c r="AB3" t="n">
-        <v>2779.825989216877</v>
+        <v>3086.965150935858</v>
       </c>
       <c r="AC3" t="n">
-        <v>2514.523298316298</v>
+        <v>2792.349529513223</v>
       </c>
       <c r="AD3" t="n">
-        <v>2031673.993631141</v>
+        <v>2256150.867259319</v>
       </c>
       <c r="AE3" t="n">
-        <v>2779825.989216877</v>
+        <v>3086965.150935858</v>
       </c>
       <c r="AF3" t="n">
         <v>3.670234565078249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.65833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2514523.298316298</v>
+        <v>2792349.529513224</v>
       </c>
     </row>
     <row r="4">
@@ -14458,28 +14458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1606.279622306118</v>
+        <v>1791.77348686477</v>
       </c>
       <c r="AB4" t="n">
-        <v>2197.782643294832</v>
+        <v>2451.583532195728</v>
       </c>
       <c r="AC4" t="n">
-        <v>1988.029352426086</v>
+        <v>2217.607840702065</v>
       </c>
       <c r="AD4" t="n">
-        <v>1606279.622306118</v>
+        <v>1791773.48686477</v>
       </c>
       <c r="AE4" t="n">
-        <v>2197782.643294832</v>
+        <v>2451583.532195728</v>
       </c>
       <c r="AF4" t="n">
         <v>4.265147900385883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.56666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1988029.352426086</v>
+        <v>2217607.840702065</v>
       </c>
     </row>
     <row r="5">
@@ -14564,28 +14564,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1429.615524492466</v>
+        <v>1605.312388655567</v>
       </c>
       <c r="AB5" t="n">
-        <v>1956.063030796263</v>
+        <v>2196.459231542812</v>
       </c>
       <c r="AC5" t="n">
-        <v>1769.379120488773</v>
+        <v>1986.832245234258</v>
       </c>
       <c r="AD5" t="n">
-        <v>1429615.524492466</v>
+        <v>1605312.388655567</v>
       </c>
       <c r="AE5" t="n">
-        <v>1956063.030796263</v>
+        <v>2196459.231542812</v>
       </c>
       <c r="AF5" t="n">
         <v>4.580871137805125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.97916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1769379.120488773</v>
+        <v>1986832.245234258</v>
       </c>
     </row>
     <row r="6">
@@ -14670,28 +14670,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1337.645629615212</v>
+        <v>1503.613824220322</v>
       </c>
       <c r="AB6" t="n">
-        <v>1830.2257631998</v>
+        <v>2057.310769058497</v>
       </c>
       <c r="AC6" t="n">
-        <v>1655.551585098003</v>
+        <v>1860.963916713353</v>
       </c>
       <c r="AD6" t="n">
-        <v>1337645.629615212</v>
+        <v>1503613.824220322</v>
       </c>
       <c r="AE6" t="n">
-        <v>1830225.7631998</v>
+        <v>2057310.769058497</v>
       </c>
       <c r="AF6" t="n">
         <v>4.775458175727337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.55416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1655551.585098003</v>
+        <v>1860963.916713353</v>
       </c>
     </row>
     <row r="7">
@@ -14776,28 +14776,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1272.808230226748</v>
+        <v>1438.742259413078</v>
       </c>
       <c r="AB7" t="n">
-        <v>1741.512372932322</v>
+        <v>1968.550632157771</v>
       </c>
       <c r="AC7" t="n">
-        <v>1575.304876287627</v>
+        <v>1780.674922702798</v>
       </c>
       <c r="AD7" t="n">
-        <v>1272808.230226748</v>
+        <v>1438742.259413078</v>
       </c>
       <c r="AE7" t="n">
-        <v>1741512.372932322</v>
+        <v>1968550.632157771</v>
       </c>
       <c r="AF7" t="n">
         <v>4.908515715492328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.64583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1575304.876287627</v>
+        <v>1780674.922702798</v>
       </c>
     </row>
     <row r="8">
@@ -14882,28 +14882,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1233.218363257489</v>
+        <v>1389.356403078124</v>
       </c>
       <c r="AB8" t="n">
-        <v>1687.343770363318</v>
+        <v>1900.978724770073</v>
       </c>
       <c r="AC8" t="n">
-        <v>1526.306049121698</v>
+        <v>1719.551983318414</v>
       </c>
       <c r="AD8" t="n">
-        <v>1233218.363257489</v>
+        <v>1389356.403078123</v>
       </c>
       <c r="AE8" t="n">
-        <v>1687343.770363318</v>
+        <v>1900978.724770073</v>
       </c>
       <c r="AF8" t="n">
         <v>5.005040115726469e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>33</v>
+        <v>32.01666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1526306.049121698</v>
+        <v>1719551.983318414</v>
       </c>
     </row>
     <row r="9">
@@ -14988,28 +14988,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1189.346603987073</v>
+        <v>1345.551963615412</v>
       </c>
       <c r="AB9" t="n">
-        <v>1627.316493844116</v>
+        <v>1841.043558181713</v>
       </c>
       <c r="AC9" t="n">
-        <v>1472.007691624677</v>
+        <v>1665.336944909712</v>
       </c>
       <c r="AD9" t="n">
-        <v>1189346.603987073</v>
+        <v>1345551.963615412</v>
       </c>
       <c r="AE9" t="n">
-        <v>1627316.493844116</v>
+        <v>1841043.558181713</v>
       </c>
       <c r="AF9" t="n">
         <v>5.08272110714996e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.525</v>
       </c>
       <c r="AH9" t="n">
-        <v>1472007.691624677</v>
+        <v>1665336.944909712</v>
       </c>
     </row>
     <row r="10">
@@ -15094,28 +15094,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1163.043140179784</v>
+        <v>1319.147014581638</v>
       </c>
       <c r="AB10" t="n">
-        <v>1591.326934236059</v>
+        <v>1804.915142009567</v>
       </c>
       <c r="AC10" t="n">
-        <v>1439.452925073948</v>
+        <v>1632.656574070485</v>
       </c>
       <c r="AD10" t="n">
-        <v>1163043.140179784</v>
+        <v>1319147.014581638</v>
       </c>
       <c r="AE10" t="n">
-        <v>1591326.934236058</v>
+        <v>1804915.142009567</v>
       </c>
       <c r="AF10" t="n">
         <v>5.13809765549146e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>31.1875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1439452.925073948</v>
+        <v>1632656.574070485</v>
       </c>
     </row>
     <row r="11">
@@ -15200,28 +15200,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1129.150179767173</v>
+        <v>1285.321373976731</v>
       </c>
       <c r="AB11" t="n">
-        <v>1544.95309054764</v>
+        <v>1758.633408251989</v>
       </c>
       <c r="AC11" t="n">
-        <v>1397.504935941054</v>
+        <v>1590.791904025909</v>
       </c>
       <c r="AD11" t="n">
-        <v>1129150.179767173</v>
+        <v>1285321.373976731</v>
       </c>
       <c r="AE11" t="n">
-        <v>1544953.09054764</v>
+        <v>1758633.408251989</v>
       </c>
       <c r="AF11" t="n">
         <v>5.186167575926789e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.89583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1397504.935941054</v>
+        <v>1590791.904025909</v>
       </c>
     </row>
     <row r="12">
@@ -15306,28 +15306,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1103.524880842196</v>
+        <v>1259.696075051754</v>
       </c>
       <c r="AB12" t="n">
-        <v>1509.891426050085</v>
+        <v>1723.571743754435</v>
       </c>
       <c r="AC12" t="n">
-        <v>1365.789507493791</v>
+        <v>1559.076475578646</v>
       </c>
       <c r="AD12" t="n">
-        <v>1103524.880842196</v>
+        <v>1259696.075051754</v>
       </c>
       <c r="AE12" t="n">
-        <v>1509891.426050085</v>
+        <v>1723571.743754435</v>
       </c>
       <c r="AF12" t="n">
         <v>5.226161749728982e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.65833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1365789.507493791</v>
+        <v>1559076.475578646</v>
       </c>
     </row>
     <row r="13">
@@ -15412,28 +15412,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1083.298394930642</v>
+        <v>1239.368103913716</v>
       </c>
       <c r="AB13" t="n">
-        <v>1482.216655696317</v>
+        <v>1695.758116836577</v>
       </c>
       <c r="AC13" t="n">
-        <v>1340.755978380802</v>
+        <v>1533.917342177158</v>
       </c>
       <c r="AD13" t="n">
-        <v>1083298.394930642</v>
+        <v>1239368.103913716</v>
       </c>
       <c r="AE13" t="n">
-        <v>1482216.655696317</v>
+        <v>1695758.116836577</v>
       </c>
       <c r="AF13" t="n">
         <v>5.26231032989635e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.45</v>
       </c>
       <c r="AH13" t="n">
-        <v>1340755.978380802</v>
+        <v>1533917.342177158</v>
       </c>
     </row>
     <row r="14">
@@ -15518,28 +15518,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1070.679592142075</v>
+        <v>1217.054796985938</v>
       </c>
       <c r="AB14" t="n">
-        <v>1464.95105301871</v>
+        <v>1665.228065904366</v>
       </c>
       <c r="AC14" t="n">
-        <v>1325.13818059032</v>
+        <v>1506.301036456721</v>
       </c>
       <c r="AD14" t="n">
-        <v>1070679.592142075</v>
+        <v>1217054.796985938</v>
       </c>
       <c r="AE14" t="n">
-        <v>1464951.05301871</v>
+        <v>1665228.065904366</v>
       </c>
       <c r="AF14" t="n">
         <v>5.279230941889586e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.35</v>
       </c>
       <c r="AH14" t="n">
-        <v>1325138.18059032</v>
+        <v>1506301.036456721</v>
       </c>
     </row>
     <row r="15">
@@ -15624,28 +15624,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1065.143245270596</v>
+        <v>1211.518450114459</v>
       </c>
       <c r="AB15" t="n">
-        <v>1457.375978982767</v>
+        <v>1657.652991868423</v>
       </c>
       <c r="AC15" t="n">
-        <v>1318.286060988684</v>
+        <v>1499.448916855086</v>
       </c>
       <c r="AD15" t="n">
-        <v>1065143.245270596</v>
+        <v>1211518.450114459</v>
       </c>
       <c r="AE15" t="n">
-        <v>1457375.978982767</v>
+        <v>1657652.991868423</v>
       </c>
       <c r="AF15" t="n">
         <v>5.290767722794064e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.28333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1318286.060988684</v>
+        <v>1499448.916855086</v>
       </c>
     </row>
     <row r="16">
@@ -15730,28 +15730,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1068.358264839736</v>
+        <v>1214.7334696836</v>
       </c>
       <c r="AB16" t="n">
-        <v>1461.774910593918</v>
+        <v>1662.051923479574</v>
       </c>
       <c r="AC16" t="n">
-        <v>1322.265164740806</v>
+        <v>1503.428020607208</v>
       </c>
       <c r="AD16" t="n">
-        <v>1068358.264839737</v>
+        <v>1214733.4696836</v>
       </c>
       <c r="AE16" t="n">
-        <v>1461774.910593918</v>
+        <v>1662051.923479574</v>
       </c>
       <c r="AF16" t="n">
         <v>5.290767722794064e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>31</v>
+        <v>30.2875</v>
       </c>
       <c r="AH16" t="n">
-        <v>1322265.164740806</v>
+        <v>1503428.020607208</v>
       </c>
     </row>
   </sheetData>
@@ -16027,28 +16027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2185.04882640726</v>
+        <v>2432.460632900136</v>
       </c>
       <c r="AB2" t="n">
-        <v>2989.680201841237</v>
+        <v>3328.199950523537</v>
       </c>
       <c r="AC2" t="n">
-        <v>2704.349319420025</v>
+        <v>3010.561218403413</v>
       </c>
       <c r="AD2" t="n">
-        <v>2185048.82640726</v>
+        <v>2432460.632900136</v>
       </c>
       <c r="AE2" t="n">
-        <v>2989680.201841237</v>
+        <v>3328199.950523537</v>
       </c>
       <c r="AF2" t="n">
         <v>3.911507108028643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.06666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2704349.319420025</v>
+        <v>3010561.218403413</v>
       </c>
     </row>
     <row r="3">
@@ -16133,28 +16133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1272.95912048141</v>
+        <v>1453.800052857544</v>
       </c>
       <c r="AB3" t="n">
-        <v>1741.718827635558</v>
+        <v>1989.153369451452</v>
       </c>
       <c r="AC3" t="n">
-        <v>1575.491627243747</v>
+        <v>1799.311363665293</v>
       </c>
       <c r="AD3" t="n">
-        <v>1272959.12048141</v>
+        <v>1453800.052857544</v>
       </c>
       <c r="AE3" t="n">
-        <v>1741718.827635558</v>
+        <v>1989153.369451452</v>
       </c>
       <c r="AF3" t="n">
         <v>5.43699008605869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.74166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1575491.627243747</v>
+        <v>1799311.363665293</v>
       </c>
     </row>
     <row r="4">
@@ -16239,28 +16239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1087.816597318918</v>
+        <v>1249.550725908936</v>
       </c>
       <c r="AB4" t="n">
-        <v>1488.398659532977</v>
+        <v>1709.690429476016</v>
       </c>
       <c r="AC4" t="n">
-        <v>1346.347980447788</v>
+        <v>1546.519974452413</v>
       </c>
       <c r="AD4" t="n">
-        <v>1087816.597318918</v>
+        <v>1249550.725908936</v>
       </c>
       <c r="AE4" t="n">
-        <v>1488398.659532978</v>
+        <v>1709690.429476016</v>
       </c>
       <c r="AF4" t="n">
         <v>5.966258850277787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1346347.980447788</v>
+        <v>1546519.974452413</v>
       </c>
     </row>
     <row r="5">
@@ -16345,28 +16345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1001.764667317395</v>
+        <v>1154.013219336987</v>
       </c>
       <c r="AB5" t="n">
-        <v>1370.658612561674</v>
+        <v>1578.971798166952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1239.844878310232</v>
+        <v>1428.276945850735</v>
       </c>
       <c r="AD5" t="n">
-        <v>1001764.667317395</v>
+        <v>1154013.219336987</v>
       </c>
       <c r="AE5" t="n">
-        <v>1370658.612561674</v>
+        <v>1578971.798166952</v>
       </c>
       <c r="AF5" t="n">
         <v>6.238563794187613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.02083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1239844.878310232</v>
+        <v>1428276.945850735</v>
       </c>
     </row>
     <row r="6">
@@ -16451,28 +16451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>940.1469602842294</v>
+        <v>1092.361346885041</v>
       </c>
       <c r="AB6" t="n">
-        <v>1286.350547417516</v>
+        <v>1494.616986389547</v>
       </c>
       <c r="AC6" t="n">
-        <v>1163.58305657632</v>
+        <v>1351.972838916643</v>
       </c>
       <c r="AD6" t="n">
-        <v>940146.9602842294</v>
+        <v>1092361.346885041</v>
       </c>
       <c r="AE6" t="n">
-        <v>1286350.547417516</v>
+        <v>1494616.986389547</v>
       </c>
       <c r="AF6" t="n">
         <v>6.409233794243772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.16666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1163583.05657632</v>
+        <v>1351972.838916643</v>
       </c>
     </row>
     <row r="7">
@@ -16557,28 +16557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>904.3094116493468</v>
+        <v>1056.591118057863</v>
       </c>
       <c r="AB7" t="n">
-        <v>1237.316032334209</v>
+        <v>1445.674581237081</v>
       </c>
       <c r="AC7" t="n">
-        <v>1119.228326792189</v>
+        <v>1307.701428220831</v>
       </c>
       <c r="AD7" t="n">
-        <v>904309.4116493468</v>
+        <v>1056591.118057863</v>
       </c>
       <c r="AE7" t="n">
-        <v>1237316.032334208</v>
+        <v>1445674.581237081</v>
       </c>
       <c r="AF7" t="n">
         <v>6.484501181908988e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.80416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1119228.326792189</v>
+        <v>1307701.428220831</v>
       </c>
     </row>
     <row r="8">
@@ -16663,28 +16663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>904.0013565429018</v>
+        <v>1056.283062951418</v>
       </c>
       <c r="AB8" t="n">
-        <v>1236.894537747139</v>
+        <v>1445.253086650011</v>
       </c>
       <c r="AC8" t="n">
-        <v>1118.847059056938</v>
+        <v>1307.32016048558</v>
       </c>
       <c r="AD8" t="n">
-        <v>904001.3565429018</v>
+        <v>1056283.062951418</v>
       </c>
       <c r="AE8" t="n">
-        <v>1236894.537747139</v>
+        <v>1445253.086650011</v>
       </c>
       <c r="AF8" t="n">
         <v>6.494089384159333e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.75833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1118847.059056938</v>
+        <v>1307320.16048558</v>
       </c>
     </row>
   </sheetData>
@@ -16960,28 +16960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1551.33782184792</v>
+        <v>1758.091036150445</v>
       </c>
       <c r="AB2" t="n">
-        <v>2122.608848046757</v>
+        <v>2405.497717163538</v>
       </c>
       <c r="AC2" t="n">
-        <v>1920.030038689403</v>
+        <v>2175.920391174699</v>
       </c>
       <c r="AD2" t="n">
-        <v>1551337.82184792</v>
+        <v>1758091.036150445</v>
       </c>
       <c r="AE2" t="n">
-        <v>2122608.848046757</v>
+        <v>2405497.717163538</v>
       </c>
       <c r="AF2" t="n">
         <v>5.145410885415018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.14583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1920030.038689403</v>
+        <v>2175920.391174699</v>
       </c>
     </row>
     <row r="3">
@@ -17066,28 +17066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1024.832773137757</v>
+        <v>1193.913923128133</v>
       </c>
       <c r="AB3" t="n">
-        <v>1402.221412638097</v>
+        <v>1633.565701388814</v>
       </c>
       <c r="AC3" t="n">
-        <v>1268.395369046029</v>
+        <v>1477.660483572126</v>
       </c>
       <c r="AD3" t="n">
-        <v>1024832.773137757</v>
+        <v>1193913.923128133</v>
       </c>
       <c r="AE3" t="n">
-        <v>1402221.412638097</v>
+        <v>1633565.701388814</v>
       </c>
       <c r="AF3" t="n">
         <v>6.593801257546356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1268395.369046029</v>
+        <v>1477660.483572126</v>
       </c>
     </row>
     <row r="4">
@@ -17172,28 +17172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.0749187342925</v>
+        <v>1045.422532824937</v>
       </c>
       <c r="AB4" t="n">
-        <v>1224.680991730757</v>
+        <v>1430.393230198186</v>
       </c>
       <c r="AC4" t="n">
-        <v>1107.79915673054</v>
+        <v>1293.878507877577</v>
       </c>
       <c r="AD4" t="n">
-        <v>895074.9187342925</v>
+        <v>1045422.532824937</v>
       </c>
       <c r="AE4" t="n">
-        <v>1224680.991730757</v>
+        <v>1430393.230198186</v>
       </c>
       <c r="AF4" t="n">
         <v>7.089862694746024e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1107799.15673054</v>
+        <v>1293878.507877578</v>
       </c>
     </row>
     <row r="5">
@@ -17278,28 +17278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>843.9896109867587</v>
+        <v>994.3030596586225</v>
       </c>
       <c r="AB5" t="n">
-        <v>1154.783819945863</v>
+        <v>1360.449311780044</v>
       </c>
       <c r="AC5" t="n">
-        <v>1044.5728729195</v>
+        <v>1230.609938866358</v>
       </c>
       <c r="AD5" t="n">
-        <v>843989.6109867587</v>
+        <v>994303.0596586225</v>
       </c>
       <c r="AE5" t="n">
-        <v>1154783.819945863</v>
+        <v>1360449.311780044</v>
       </c>
       <c r="AF5" t="n">
         <v>7.260486024244372e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1044572.8729195</v>
+        <v>1230609.938866358</v>
       </c>
     </row>
     <row r="6">
@@ -17384,28 +17384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>846.5146006152571</v>
+        <v>996.828049287121</v>
       </c>
       <c r="AB6" t="n">
-        <v>1158.238622150255</v>
+        <v>1363.904113984437</v>
       </c>
       <c r="AC6" t="n">
-        <v>1047.69795365035</v>
+        <v>1233.735019597208</v>
       </c>
       <c r="AD6" t="n">
-        <v>846514.6006152572</v>
+        <v>996828.0492871209</v>
       </c>
       <c r="AE6" t="n">
-        <v>1158238.622150255</v>
+        <v>1363904.113984437</v>
       </c>
       <c r="AF6" t="n">
         <v>7.267027493745905e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.25416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1047697.95365035</v>
+        <v>1233735.019597208</v>
       </c>
     </row>
   </sheetData>
@@ -32118,28 +32118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1191.170917827375</v>
+        <v>1386.527902760511</v>
       </c>
       <c r="AB2" t="n">
-        <v>1629.812600523463</v>
+        <v>1897.108645850889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1474.265573385854</v>
+        <v>1716.051259299587</v>
       </c>
       <c r="AD2" t="n">
-        <v>1191170.917827375</v>
+        <v>1386527.902760511</v>
       </c>
       <c r="AE2" t="n">
-        <v>1629812.600523463</v>
+        <v>1897108.645850889</v>
       </c>
       <c r="AF2" t="n">
         <v>6.377243923357944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.99583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1474265.573385854</v>
+        <v>1716051.259299587</v>
       </c>
     </row>
     <row r="3">
@@ -32224,28 +32224,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>845.6090121929145</v>
+        <v>1003.776292874223</v>
       </c>
       <c r="AB3" t="n">
-        <v>1156.999556119064</v>
+        <v>1373.411007395182</v>
       </c>
       <c r="AC3" t="n">
-        <v>1046.577142342136</v>
+        <v>1242.334588443841</v>
       </c>
       <c r="AD3" t="n">
-        <v>845609.0121929145</v>
+        <v>1003776.292874223</v>
       </c>
       <c r="AE3" t="n">
-        <v>1156999.556119064</v>
+        <v>1373411.007395182</v>
       </c>
       <c r="AF3" t="n">
         <v>7.758969903488393e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1046577.142342136</v>
+        <v>1242334.588443841</v>
       </c>
     </row>
     <row r="4">
@@ -32330,28 +32330,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>795.805800716534</v>
+        <v>953.9389159790616</v>
       </c>
       <c r="AB4" t="n">
-        <v>1088.856605014458</v>
+        <v>1305.221309657328</v>
       </c>
       <c r="AC4" t="n">
-        <v>984.9376588517209</v>
+        <v>1180.652819753246</v>
       </c>
       <c r="AD4" t="n">
-        <v>795805.800716534</v>
+        <v>953938.9159790615</v>
       </c>
       <c r="AE4" t="n">
-        <v>1088856.605014458</v>
+        <v>1305221.309657328</v>
       </c>
       <c r="AF4" t="n">
         <v>7.994053100816745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.90833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>984937.658851721</v>
+        <v>1180652.819753246</v>
       </c>
     </row>
   </sheetData>
@@ -32627,28 +32627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>734.4890009196516</v>
+        <v>898.5737136402718</v>
       </c>
       <c r="AB2" t="n">
-        <v>1004.960254426074</v>
+        <v>1229.468197277055</v>
       </c>
       <c r="AC2" t="n">
-        <v>909.0482582142241</v>
+        <v>1112.129478098385</v>
       </c>
       <c r="AD2" t="n">
-        <v>734489.0009196516</v>
+        <v>898573.7136402718</v>
       </c>
       <c r="AE2" t="n">
-        <v>1004960.254426074</v>
+        <v>1229468.197277055</v>
       </c>
       <c r="AF2" t="n">
         <v>9.717032844339617e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.71666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>909048.2582142241</v>
+        <v>1112129.478098385</v>
       </c>
     </row>
     <row r="3">
@@ -32733,28 +32733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.3995508494725</v>
+        <v>902.4842635700927</v>
       </c>
       <c r="AB3" t="n">
-        <v>1010.310841361342</v>
+        <v>1234.818784212323</v>
       </c>
       <c r="AC3" t="n">
-        <v>913.8881926419861</v>
+        <v>1116.969412526146</v>
       </c>
       <c r="AD3" t="n">
-        <v>738399.5508494724</v>
+        <v>902484.2635700927</v>
       </c>
       <c r="AE3" t="n">
-        <v>1010310.841361342</v>
+        <v>1234818.784212323</v>
       </c>
       <c r="AF3" t="n">
         <v>9.732416864341488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.6625</v>
       </c>
       <c r="AH3" t="n">
-        <v>913888.1926419861</v>
+        <v>1116969.412526147</v>
       </c>
     </row>
   </sheetData>
@@ -33030,28 +33030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3016.588042210301</v>
+        <v>3305.099612750332</v>
       </c>
       <c r="AB2" t="n">
-        <v>4127.428841824304</v>
+        <v>4522.183100869375</v>
       </c>
       <c r="AC2" t="n">
-        <v>3733.512826043198</v>
+        <v>4090.592292646076</v>
       </c>
       <c r="AD2" t="n">
-        <v>3016588.042210301</v>
+        <v>3305099.612750332</v>
       </c>
       <c r="AE2" t="n">
-        <v>4127428.841824304</v>
+        <v>4522183.100869375</v>
       </c>
       <c r="AF2" t="n">
         <v>3.056541200567444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3733512.826043198</v>
+        <v>4090592.292646076</v>
       </c>
     </row>
     <row r="3">
@@ -33136,28 +33136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1542.438872286638</v>
+        <v>1734.746090904497</v>
       </c>
       <c r="AB3" t="n">
-        <v>2110.432912663065</v>
+        <v>2373.556133171734</v>
       </c>
       <c r="AC3" t="n">
-        <v>1909.016157489697</v>
+        <v>2147.027267128778</v>
       </c>
       <c r="AD3" t="n">
-        <v>1542438.872286638</v>
+        <v>1734746.090904497</v>
       </c>
       <c r="AE3" t="n">
-        <v>2110432.912663065</v>
+        <v>2373556.133171734</v>
       </c>
       <c r="AF3" t="n">
         <v>4.624176676139533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1909016.157489697</v>
+        <v>2147027.267128779</v>
       </c>
     </row>
     <row r="4">
@@ -33242,28 +33242,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1271.652907178901</v>
+        <v>1444.78657522003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1739.931608969002</v>
+        <v>1976.820731701236</v>
       </c>
       <c r="AC4" t="n">
-        <v>1573.87497821835</v>
+        <v>1788.155735552992</v>
       </c>
       <c r="AD4" t="n">
-        <v>1271652.907178901</v>
+        <v>1444786.57522003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1739931.608969002</v>
+        <v>1976820.731701236</v>
       </c>
       <c r="AF4" t="n">
         <v>5.191378857090144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.9125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1573874.97821835</v>
+        <v>1788155.735552992</v>
       </c>
     </row>
     <row r="5">
@@ -33348,28 +33348,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1166.683168096412</v>
+        <v>1330.129081137619</v>
       </c>
       <c r="AB5" t="n">
-        <v>1596.307381018287</v>
+        <v>1819.941289966042</v>
       </c>
       <c r="AC5" t="n">
-        <v>1443.958045005382</v>
+        <v>1646.248647555326</v>
       </c>
       <c r="AD5" t="n">
-        <v>1166683.168096412</v>
+        <v>1330129.081137619</v>
       </c>
       <c r="AE5" t="n">
-        <v>1596307.381018287</v>
+        <v>1819941.289966042</v>
       </c>
       <c r="AF5" t="n">
         <v>5.47497994756545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1443958.045005382</v>
+        <v>1646248.647555326</v>
       </c>
     </row>
     <row r="6">
@@ -33454,28 +33454,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1099.114510701047</v>
+        <v>1252.974153968817</v>
       </c>
       <c r="AB6" t="n">
-        <v>1503.856963051166</v>
+        <v>1714.374514778531</v>
       </c>
       <c r="AC6" t="n">
-        <v>1360.330965174066</v>
+        <v>1550.757017227811</v>
       </c>
       <c r="AD6" t="n">
-        <v>1099114.510701047</v>
+        <v>1252974.153968817</v>
       </c>
       <c r="AE6" t="n">
-        <v>1503856.963051166</v>
+        <v>1714374.514778531</v>
       </c>
       <c r="AF6" t="n">
         <v>5.648533375632393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1360330.965174066</v>
+        <v>1550757.017227811</v>
       </c>
     </row>
     <row r="7">
@@ -33560,28 +33560,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1043.985980885282</v>
+        <v>1197.811458734271</v>
       </c>
       <c r="AB7" t="n">
-        <v>1428.42767645815</v>
+        <v>1638.898481552268</v>
       </c>
       <c r="AC7" t="n">
-        <v>1292.100543827819</v>
+        <v>1482.484310681384</v>
       </c>
       <c r="AD7" t="n">
-        <v>1043985.980885282</v>
+        <v>1197811.458734271</v>
       </c>
       <c r="AE7" t="n">
-        <v>1428427.67645815</v>
+        <v>1638898.481552268</v>
       </c>
       <c r="AF7" t="n">
         <v>5.775979877947217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.37916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1292100.543827819</v>
+        <v>1482484.310681384</v>
       </c>
     </row>
     <row r="8">
@@ -33666,28 +33666,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>996.2145889390947</v>
+        <v>1150.107386595789</v>
       </c>
       <c r="AB8" t="n">
-        <v>1363.064750472306</v>
+        <v>1573.627665497265</v>
       </c>
       <c r="AC8" t="n">
-        <v>1232.975763760621</v>
+        <v>1423.442849702505</v>
       </c>
       <c r="AD8" t="n">
-        <v>996214.5889390947</v>
+        <v>1150107.386595789</v>
       </c>
       <c r="AE8" t="n">
-        <v>1363064.750472306</v>
+        <v>1573627.665497265</v>
       </c>
       <c r="AF8" t="n">
         <v>5.869933613442102e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1232975.763760621</v>
+        <v>1423442.849702505</v>
       </c>
     </row>
     <row r="9">
@@ -33772,28 +33772,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>970.2795283145269</v>
+        <v>1124.172325971221</v>
       </c>
       <c r="AB9" t="n">
-        <v>1327.57925635165</v>
+        <v>1538.142171376609</v>
       </c>
       <c r="AC9" t="n">
-        <v>1200.876955394636</v>
+        <v>1391.344041336521</v>
       </c>
       <c r="AD9" t="n">
-        <v>970279.5283145269</v>
+        <v>1124172.325971221</v>
       </c>
       <c r="AE9" t="n">
-        <v>1327579.25635165</v>
+        <v>1538142.171376609</v>
       </c>
       <c r="AF9" t="n">
         <v>5.930394582117053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.55833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1200876.955394636</v>
+        <v>1391344.041336521</v>
       </c>
     </row>
     <row r="10">
@@ -33878,28 +33878,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>965.698952081362</v>
+        <v>1119.591749738056</v>
       </c>
       <c r="AB10" t="n">
-        <v>1321.311909868673</v>
+        <v>1531.874824893632</v>
       </c>
       <c r="AC10" t="n">
-        <v>1195.207755663718</v>
+        <v>1385.674841605603</v>
       </c>
       <c r="AD10" t="n">
-        <v>965698.952081362</v>
+        <v>1119591.749738056</v>
       </c>
       <c r="AE10" t="n">
-        <v>1321311.909868672</v>
+        <v>1531874.824893632</v>
       </c>
       <c r="AF10" t="n">
         <v>5.939528973067944e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.51666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1195207.755663718</v>
+        <v>1385674.841605603</v>
       </c>
     </row>
     <row r="11">
@@ -33984,28 +33984,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>968.8403816527151</v>
+        <v>1122.733179309409</v>
       </c>
       <c r="AB11" t="n">
-        <v>1325.610152398289</v>
+        <v>1536.173067423248</v>
       </c>
       <c r="AC11" t="n">
-        <v>1199.09577995893</v>
+        <v>1389.562865900814</v>
       </c>
       <c r="AD11" t="n">
-        <v>968840.3816527152</v>
+        <v>1122733.17930941</v>
       </c>
       <c r="AE11" t="n">
-        <v>1325610.152398289</v>
+        <v>1536173.067423248</v>
       </c>
       <c r="AF11" t="n">
         <v>5.939094002070283e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.51666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1199095.77995893</v>
+        <v>1389562.865900814</v>
       </c>
     </row>
   </sheetData>
@@ -34281,28 +34281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4711.893106128439</v>
+        <v>5081.805269423356</v>
       </c>
       <c r="AB2" t="n">
-        <v>6447.020021858128</v>
+        <v>6953.150163051141</v>
       </c>
       <c r="AC2" t="n">
-        <v>5831.725479421175</v>
+        <v>6289.551270296823</v>
       </c>
       <c r="AD2" t="n">
-        <v>4711893.106128439</v>
+        <v>5081805.269423355</v>
       </c>
       <c r="AE2" t="n">
-        <v>6447020.021858128</v>
+        <v>6953150.163051141</v>
       </c>
       <c r="AF2" t="n">
         <v>2.215950142117926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5831725.479421175</v>
+        <v>6289551.270296822</v>
       </c>
     </row>
     <row r="3">
@@ -34387,28 +34387,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1924.321311902936</v>
+        <v>2138.486379929274</v>
       </c>
       <c r="AB3" t="n">
-        <v>2632.941314010286</v>
+        <v>2925.971408379894</v>
       </c>
       <c r="AC3" t="n">
-        <v>2381.657090357487</v>
+        <v>2646.720803790781</v>
       </c>
       <c r="AD3" t="n">
-        <v>1924321.311902937</v>
+        <v>2138486.379929274</v>
       </c>
       <c r="AE3" t="n">
-        <v>2632941.314010286</v>
+        <v>2925971.408379895</v>
       </c>
       <c r="AF3" t="n">
         <v>3.834875050841541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.70416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2381657.090357487</v>
+        <v>2646720.803790781</v>
       </c>
     </row>
     <row r="4">
@@ -34493,28 +34493,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1542.401728800297</v>
+        <v>1727.290490640051</v>
       </c>
       <c r="AB4" t="n">
-        <v>2110.382091306399</v>
+        <v>2363.355051972049</v>
       </c>
       <c r="AC4" t="n">
-        <v>1908.970186451983</v>
+        <v>2137.799762801485</v>
       </c>
       <c r="AD4" t="n">
-        <v>1542401.728800297</v>
+        <v>1727290.490640051</v>
       </c>
       <c r="AE4" t="n">
-        <v>2110382.091306399</v>
+        <v>2363355.051972049</v>
       </c>
       <c r="AF4" t="n">
         <v>4.424825594175881e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.00833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1908970.186451983</v>
+        <v>2137799.762801485</v>
       </c>
     </row>
     <row r="5">
@@ -34599,28 +34599,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1376.410766745817</v>
+        <v>1551.630519600315</v>
       </c>
       <c r="AB5" t="n">
-        <v>1883.265934019045</v>
+        <v>2123.009330024498</v>
       </c>
       <c r="AC5" t="n">
-        <v>1703.529676456606</v>
+        <v>1920.392299229268</v>
       </c>
       <c r="AD5" t="n">
-        <v>1376410.766745817</v>
+        <v>1551630.519600315</v>
       </c>
       <c r="AE5" t="n">
-        <v>1883265.934019045</v>
+        <v>2123009.330024498</v>
       </c>
       <c r="AF5" t="n">
         <v>4.738863225171309e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.55833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1703529.676456606</v>
+        <v>1920392.299229268</v>
       </c>
     </row>
     <row r="6">
@@ -34705,28 +34705,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1291.00905696035</v>
+        <v>1456.425161214184</v>
       </c>
       <c r="AB6" t="n">
-        <v>1766.415547033042</v>
+        <v>1992.745158516614</v>
       </c>
       <c r="AC6" t="n">
-        <v>1597.831326403998</v>
+        <v>1802.560357423184</v>
       </c>
       <c r="AD6" t="n">
-        <v>1291009.05696035</v>
+        <v>1456425.161214184</v>
       </c>
       <c r="AE6" t="n">
-        <v>1766415.547033041</v>
+        <v>1992745.158516614</v>
       </c>
       <c r="AF6" t="n">
         <v>4.92791466510723e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.23333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1597831.326403998</v>
+        <v>1802560.357423184</v>
       </c>
     </row>
     <row r="7">
@@ -34811,28 +34811,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1229.698600389883</v>
+        <v>1395.080539224936</v>
       </c>
       <c r="AB7" t="n">
-        <v>1682.527875526882</v>
+        <v>1908.810740377206</v>
       </c>
       <c r="AC7" t="n">
-        <v>1521.9497765293</v>
+        <v>1726.636522348305</v>
       </c>
       <c r="AD7" t="n">
-        <v>1229698.600389883</v>
+        <v>1395080.539224936</v>
       </c>
       <c r="AE7" t="n">
-        <v>1682527.875526882</v>
+        <v>1908810.740377206</v>
       </c>
       <c r="AF7" t="n">
         <v>5.057617316206719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.37916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1521949.7765293</v>
+        <v>1726636.522348305</v>
       </c>
     </row>
     <row r="8">
@@ -34917,28 +34917,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179.729021069275</v>
+        <v>1345.178279712032</v>
       </c>
       <c r="AB8" t="n">
-        <v>1614.157292598171</v>
+        <v>1840.532267379338</v>
       </c>
       <c r="AC8" t="n">
-        <v>1460.10438607659</v>
+        <v>1664.874450983915</v>
       </c>
       <c r="AD8" t="n">
-        <v>1179729.021069275</v>
+        <v>1345178.279712032</v>
       </c>
       <c r="AE8" t="n">
-        <v>1614157.292598171</v>
+        <v>1840532.267379338</v>
       </c>
       <c r="AF8" t="n">
         <v>5.157056015382993e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.75416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1460104.38607659</v>
+        <v>1664874.450983915</v>
       </c>
     </row>
     <row r="9">
@@ -35023,28 +35023,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1147.801462833035</v>
+        <v>1303.481238293908</v>
       </c>
       <c r="AB9" t="n">
-        <v>1570.472598874888</v>
+        <v>1783.480535767422</v>
       </c>
       <c r="AC9" t="n">
-        <v>1420.588898210404</v>
+        <v>1613.267656564432</v>
       </c>
       <c r="AD9" t="n">
-        <v>1147801.462833035</v>
+        <v>1303481.238293908</v>
       </c>
       <c r="AE9" t="n">
-        <v>1570472.598874888</v>
+        <v>1783480.535767422</v>
       </c>
       <c r="AF9" t="n">
         <v>5.229375069329374e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.31666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1420588.898210404</v>
+        <v>1613267.656564432</v>
       </c>
     </row>
     <row r="10">
@@ -35129,28 +35129,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1110.296822033591</v>
+        <v>1266.043917302169</v>
       </c>
       <c r="AB10" t="n">
-        <v>1519.157094745113</v>
+        <v>1732.257141568488</v>
       </c>
       <c r="AC10" t="n">
-        <v>1374.170873773012</v>
+        <v>1566.932951215359</v>
       </c>
       <c r="AD10" t="n">
-        <v>1110296.822033591</v>
+        <v>1266043.917302169</v>
       </c>
       <c r="AE10" t="n">
-        <v>1519157.094745113</v>
+        <v>1732257.141568488</v>
       </c>
       <c r="AF10" t="n">
         <v>5.287937781492476e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.96666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1374170.873773012</v>
+        <v>1566932.951215359</v>
       </c>
     </row>
     <row r="11">
@@ -35235,28 +35235,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1088.761492018896</v>
+        <v>1244.508587287474</v>
       </c>
       <c r="AB11" t="n">
-        <v>1489.691506147299</v>
+        <v>1702.791552970674</v>
       </c>
       <c r="AC11" t="n">
-        <v>1347.517439595761</v>
+        <v>1540.279517038107</v>
       </c>
       <c r="AD11" t="n">
-        <v>1088761.492018896</v>
+        <v>1244508.587287474</v>
       </c>
       <c r="AE11" t="n">
-        <v>1489691.506147299</v>
+        <v>1702791.552970674</v>
       </c>
       <c r="AF11" t="n">
         <v>5.328813768505649e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.73333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1347517.439595761</v>
+        <v>1540279.517038107</v>
       </c>
     </row>
     <row r="12">
@@ -35341,28 +35341,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1064.419631090067</v>
+        <v>1220.065241132159</v>
       </c>
       <c r="AB12" t="n">
-        <v>1456.385898137361</v>
+        <v>1669.347088396647</v>
       </c>
       <c r="AC12" t="n">
-        <v>1317.390472069577</v>
+        <v>1510.026945223424</v>
       </c>
       <c r="AD12" t="n">
-        <v>1064419.631090067</v>
+        <v>1220065.241132159</v>
       </c>
       <c r="AE12" t="n">
-        <v>1456385.898137361</v>
+        <v>1669347.088396647</v>
       </c>
       <c r="AF12" t="n">
         <v>5.370475832192151e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.49166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1317390.472069577</v>
+        <v>1510026.945223425</v>
       </c>
     </row>
     <row r="13">
@@ -35447,28 +35447,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1050.130962058881</v>
+        <v>1205.776572100973</v>
       </c>
       <c r="AB13" t="n">
-        <v>1436.835510797305</v>
+        <v>1649.796701056591</v>
       </c>
       <c r="AC13" t="n">
-        <v>1299.705946258115</v>
+        <v>1492.342419411962</v>
       </c>
       <c r="AD13" t="n">
-        <v>1050130.962058881</v>
+        <v>1205776.572100973</v>
       </c>
       <c r="AE13" t="n">
-        <v>1436835.510797305</v>
+        <v>1649796.701056591</v>
       </c>
       <c r="AF13" t="n">
         <v>5.392879017382064e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.36666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1299705.946258115</v>
+        <v>1492342.419411962</v>
       </c>
     </row>
     <row r="14">
@@ -35553,28 +35553,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1049.542086972604</v>
+        <v>1195.519699059298</v>
       </c>
       <c r="AB14" t="n">
-        <v>1436.029785924925</v>
+        <v>1635.762794859668</v>
       </c>
       <c r="AC14" t="n">
-        <v>1298.977118636713</v>
+        <v>1479.647889525762</v>
       </c>
       <c r="AD14" t="n">
-        <v>1049542.086972604</v>
+        <v>1195519.699059298</v>
       </c>
       <c r="AE14" t="n">
-        <v>1436029.785924925</v>
+        <v>1635762.794859668</v>
       </c>
       <c r="AF14" t="n">
         <v>5.396809400748714e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>31</v>
+        <v>30.34583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1298977.118636713</v>
+        <v>1479647.889525762</v>
       </c>
     </row>
     <row r="15">
@@ -35659,28 +35659,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1052.449732451544</v>
+        <v>1198.427344538238</v>
       </c>
       <c r="AB15" t="n">
-        <v>1440.008154745476</v>
+        <v>1639.741163680219</v>
       </c>
       <c r="AC15" t="n">
-        <v>1302.575797520706</v>
+        <v>1483.246568409756</v>
       </c>
       <c r="AD15" t="n">
-        <v>1052449.732451544</v>
+        <v>1198427.344538238</v>
       </c>
       <c r="AE15" t="n">
-        <v>1440008.154745476</v>
+        <v>1639741.163680219</v>
       </c>
       <c r="AF15" t="n">
         <v>5.396023324075384e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>31</v>
+        <v>30.35</v>
       </c>
       <c r="AH15" t="n">
-        <v>1302575.797520706</v>
+        <v>1483246.568409756</v>
       </c>
     </row>
   </sheetData>
@@ -35956,28 +35956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.1876715178697</v>
+        <v>904.7127278350511</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.8655210759766</v>
+        <v>1237.867867332544</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.2987064329781</v>
+        <v>1119.727495432789</v>
       </c>
       <c r="AD2" t="n">
-        <v>724187.6715178697</v>
+        <v>904712.727835051</v>
       </c>
       <c r="AE2" t="n">
-        <v>990865.5210759767</v>
+        <v>1237867.867332544</v>
       </c>
       <c r="AF2" t="n">
         <v>1.054727350732939e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.67083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>896298.706432978</v>
+        <v>1119727.495432789</v>
       </c>
     </row>
   </sheetData>
@@ -36253,28 +36253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1743.882682698629</v>
+        <v>1970.381620705711</v>
       </c>
       <c r="AB2" t="n">
-        <v>2386.057221142446</v>
+        <v>2695.963060551652</v>
       </c>
       <c r="AC2" t="n">
-        <v>2158.335268808954</v>
+        <v>2438.664129860522</v>
       </c>
       <c r="AD2" t="n">
-        <v>1743882.682698629</v>
+        <v>1970381.620705711</v>
       </c>
       <c r="AE2" t="n">
-        <v>2386057.221142447</v>
+        <v>2695963.060551652</v>
       </c>
       <c r="AF2" t="n">
         <v>4.673785547721206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.34166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2158335.268808954</v>
+        <v>2438664.129860522</v>
       </c>
     </row>
     <row r="3">
@@ -36359,28 +36359,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1111.158665700905</v>
+        <v>1281.033121963682</v>
       </c>
       <c r="AB3" t="n">
-        <v>1520.336307272591</v>
+        <v>1752.766032663409</v>
       </c>
       <c r="AC3" t="n">
-        <v>1375.237543911903</v>
+        <v>1585.484502528589</v>
       </c>
       <c r="AD3" t="n">
-        <v>1111158.665700905</v>
+        <v>1281033.121963682</v>
       </c>
       <c r="AE3" t="n">
-        <v>1520336.307272591</v>
+        <v>1752766.032663409</v>
       </c>
       <c r="AF3" t="n">
         <v>6.150620687424904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.21666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1375237.543911903</v>
+        <v>1585484.502528589</v>
       </c>
     </row>
     <row r="4">
@@ -36465,28 +36465,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>958.0328365335866</v>
+        <v>1118.531504743553</v>
       </c>
       <c r="AB4" t="n">
-        <v>1310.822792371057</v>
+        <v>1530.424150917444</v>
       </c>
       <c r="AC4" t="n">
-        <v>1185.719704818507</v>
+        <v>1384.362617917669</v>
       </c>
       <c r="AD4" t="n">
-        <v>958032.8365335866</v>
+        <v>1118531.504743553</v>
       </c>
       <c r="AE4" t="n">
-        <v>1310822.792371057</v>
+        <v>1530424.150917444</v>
       </c>
       <c r="AF4" t="n">
         <v>6.661093094038432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1185719.704818507</v>
+        <v>1384362.617917669</v>
       </c>
     </row>
     <row r="5">
@@ -36571,28 +36571,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>881.0052578459298</v>
+        <v>1031.993498387677</v>
       </c>
       <c r="AB5" t="n">
-        <v>1205.430260993668</v>
+        <v>1412.01903283394</v>
       </c>
       <c r="AC5" t="n">
-        <v>1090.385688716429</v>
+        <v>1277.257918121427</v>
       </c>
       <c r="AD5" t="n">
-        <v>881005.2578459298</v>
+        <v>1031993.498387677</v>
       </c>
       <c r="AE5" t="n">
-        <v>1205430.260993668</v>
+        <v>1412019.03283394</v>
       </c>
       <c r="AF5" t="n">
         <v>6.923606908030113e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.28333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1090385.688716429</v>
+        <v>1277257.918121427</v>
       </c>
     </row>
     <row r="6">
@@ -36677,28 +36677,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.8045975036621</v>
+        <v>1019.79283804541</v>
       </c>
       <c r="AB6" t="n">
-        <v>1188.736779258231</v>
+        <v>1395.325551098503</v>
       </c>
       <c r="AC6" t="n">
-        <v>1075.285409448373</v>
+        <v>1262.157638853372</v>
       </c>
       <c r="AD6" t="n">
-        <v>868804.5975036621</v>
+        <v>1019792.83804541</v>
       </c>
       <c r="AE6" t="n">
-        <v>1188736.779258231</v>
+        <v>1395325.551098503</v>
       </c>
       <c r="AF6" t="n">
         <v>6.97247086548599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1075285.409448373</v>
+        <v>1262157.638853372</v>
       </c>
     </row>
     <row r="7">
@@ -36783,28 +36783,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>872.4268897638433</v>
+        <v>1023.415130305591</v>
       </c>
       <c r="AB7" t="n">
-        <v>1193.692959332867</v>
+        <v>1400.281731173139</v>
       </c>
       <c r="AC7" t="n">
-        <v>1079.768578652728</v>
+        <v>1266.640808057727</v>
       </c>
       <c r="AD7" t="n">
-        <v>872426.8897638433</v>
+        <v>1023415.130305591</v>
       </c>
       <c r="AE7" t="n">
-        <v>1193692.959332867</v>
+        <v>1400281.731173139</v>
       </c>
       <c r="AF7" t="n">
         <v>6.97247086548599e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.06666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1079768.578652728</v>
+        <v>1266640.808057727</v>
       </c>
     </row>
   </sheetData>
@@ -37080,28 +37080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2427.357781082974</v>
+        <v>2694.827992820834</v>
       </c>
       <c r="AB2" t="n">
-        <v>3321.218003545363</v>
+        <v>3687.182547198066</v>
       </c>
       <c r="AC2" t="n">
-        <v>3004.245618645612</v>
+        <v>3335.28301988655</v>
       </c>
       <c r="AD2" t="n">
-        <v>2427357.781082974</v>
+        <v>2694827.992820834</v>
       </c>
       <c r="AE2" t="n">
-        <v>3321218.003545363</v>
+        <v>3687182.547198066</v>
       </c>
       <c r="AF2" t="n">
         <v>3.598396621419303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.59999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>3004245.618645612</v>
+        <v>3335283.01988655</v>
       </c>
     </row>
     <row r="3">
@@ -37186,28 +37186,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1361.888306510536</v>
+        <v>1543.432317543858</v>
       </c>
       <c r="AB3" t="n">
-        <v>1863.395663239406</v>
+        <v>2111.792188291705</v>
       </c>
       <c r="AC3" t="n">
-        <v>1685.555796432075</v>
+        <v>1910.245705760095</v>
       </c>
       <c r="AD3" t="n">
-        <v>1361888.306510536</v>
+        <v>1543432.317543858</v>
       </c>
       <c r="AE3" t="n">
-        <v>1863395.663239406</v>
+        <v>2111792.188291705</v>
       </c>
       <c r="AF3" t="n">
         <v>5.135144342426775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.55833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1685555.796432075</v>
+        <v>1910245.705760096</v>
       </c>
     </row>
     <row r="4">
@@ -37292,28 +37292,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1147.894583479532</v>
+        <v>1319.81531572617</v>
       </c>
       <c r="AB4" t="n">
-        <v>1570.600010651619</v>
+        <v>1805.829541118881</v>
       </c>
       <c r="AC4" t="n">
-        <v>1420.704149985988</v>
+        <v>1633.483704212173</v>
       </c>
       <c r="AD4" t="n">
-        <v>1147894.583479532</v>
+        <v>1319815.31572617</v>
       </c>
       <c r="AE4" t="n">
-        <v>1570600.010651619</v>
+        <v>1805829.541118881</v>
       </c>
       <c r="AF4" t="n">
         <v>5.674857548057713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1420704.149985988</v>
+        <v>1633483.704212173</v>
       </c>
     </row>
     <row r="5">
@@ -37398,28 +37398,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1053.572240730308</v>
+        <v>1215.870705220119</v>
       </c>
       <c r="AB5" t="n">
-        <v>1441.544020094052</v>
+        <v>1663.60793931193</v>
       </c>
       <c r="AC5" t="n">
-        <v>1303.965082036014</v>
+        <v>1504.835532472407</v>
       </c>
       <c r="AD5" t="n">
-        <v>1053572.240730308</v>
+        <v>1215870.705220119</v>
       </c>
       <c r="AE5" t="n">
-        <v>1441544.020094052</v>
+        <v>1663607.93931193</v>
       </c>
       <c r="AF5" t="n">
         <v>5.960914804558502e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.35416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1303965.082036014</v>
+        <v>1504835.532472407</v>
       </c>
     </row>
     <row r="6">
@@ -37504,28 +37504,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>989.358479213675</v>
+        <v>1142.136161173145</v>
       </c>
       <c r="AB6" t="n">
-        <v>1353.683918675774</v>
+        <v>1562.721083208357</v>
       </c>
       <c r="AC6" t="n">
-        <v>1224.490225384669</v>
+        <v>1413.577176319767</v>
       </c>
       <c r="AD6" t="n">
-        <v>989358.479213675</v>
+        <v>1142136.161173145</v>
       </c>
       <c r="AE6" t="n">
-        <v>1353683.918675774</v>
+        <v>1562721.083208357</v>
       </c>
       <c r="AF6" t="n">
         <v>6.130327354524988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1224490.225384669</v>
+        <v>1413577.176319767</v>
       </c>
     </row>
     <row r="7">
@@ -37610,28 +37610,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>938.9508453769971</v>
+        <v>1091.795847144171</v>
       </c>
       <c r="AB7" t="n">
-        <v>1284.713970232576</v>
+        <v>1493.843244696001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1162.10267202096</v>
+        <v>1351.272942044376</v>
       </c>
       <c r="AD7" t="n">
-        <v>938950.8453769971</v>
+        <v>1091795.847144171</v>
       </c>
       <c r="AE7" t="n">
-        <v>1284713.970232576</v>
+        <v>1493843.244696001</v>
       </c>
       <c r="AF7" t="n">
         <v>6.246046309420129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.87916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1162102.67202096</v>
+        <v>1351272.942044376</v>
       </c>
     </row>
     <row r="8">
@@ -37716,28 +37716,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>923.5831433508935</v>
+        <v>1076.428145118068</v>
       </c>
       <c r="AB8" t="n">
-        <v>1263.687202345297</v>
+        <v>1472.816476808722</v>
       </c>
       <c r="AC8" t="n">
-        <v>1143.082669349589</v>
+        <v>1332.252939373005</v>
       </c>
       <c r="AD8" t="n">
-        <v>923583.1433508935</v>
+        <v>1076428.145118068</v>
       </c>
       <c r="AE8" t="n">
-        <v>1263687.202345297</v>
+        <v>1472816.476808722</v>
       </c>
       <c r="AF8" t="n">
         <v>6.288168009001961e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.67083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1143082.669349588</v>
+        <v>1332252.939373005</v>
       </c>
     </row>
     <row r="9">
@@ -37822,28 +37822,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>926.3656289159055</v>
+        <v>1079.21063068308</v>
       </c>
       <c r="AB9" t="n">
-        <v>1267.494321849945</v>
+        <v>1476.623596313371</v>
       </c>
       <c r="AC9" t="n">
-        <v>1146.52644271204</v>
+        <v>1335.696712735456</v>
       </c>
       <c r="AD9" t="n">
-        <v>926365.6289159055</v>
+        <v>1079210.63068308</v>
       </c>
       <c r="AE9" t="n">
-        <v>1267494.321849945</v>
+        <v>1476623.596313371</v>
       </c>
       <c r="AF9" t="n">
         <v>6.288630884821541e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1146526.44271204</v>
+        <v>1335696.712735456</v>
       </c>
     </row>
   </sheetData>
